--- a/2ИСИП-421/2ИСИП-421.xlsx
+++ b/2ИСИП-421/2ИСИП-421.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v1_Git0\_2ИСИП-421\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-421\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D2A0D3-B341-4B9F-AD23-F561F1D6FBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA53F5F-EFF2-46EF-B7E7-F0524F96633E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Акобян Арман</t>
   </si>
@@ -110,6 +110,24 @@
   </si>
   <si>
     <t>Лаб 1</t>
+  </si>
+  <si>
+    <t>Лаб 2</t>
+  </si>
+  <si>
+    <t>Лаб 3</t>
+  </si>
+  <si>
+    <t>Лаб 4</t>
+  </si>
+  <si>
+    <t>Лаб 5</t>
+  </si>
+  <si>
+    <t>Лаб 6</t>
+  </si>
+  <si>
+    <t>Лаб7</t>
   </si>
 </sst>
 </file>
@@ -498,7 +516,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -538,12 +556,24 @@
       <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -678,7 +708,9 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2">
+        <v>5</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -765,7 +797,9 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2">
+        <v>5</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -823,7 +857,9 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1051,7 +1087,9 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="J21" s="2">
+        <v>5</v>
+      </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1167,7 +1205,9 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="J25" s="2">
+        <v>5</v>
+      </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1196,7 +1236,9 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="J26" s="2">
+        <v>5</v>
+      </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -1312,7 +1354,9 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="J30" s="2">
+        <v>5</v>
+      </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>

--- a/2ИСИП-421/2ИСИП-421.xlsx
+++ b/2ИСИП-421/2ИСИП-421.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-421\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA53F5F-EFF2-46EF-B7E7-F0524F96633E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DAC618-835A-4000-B7E9-0F0A87EC3208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,12 +158,24 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -193,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -206,6 +218,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -513,10 +531,10 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomRight" activeCell="J30" activeCellId="3" sqref="J21 J25 J26 J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -614,7 +632,7 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>5</v>
       </c>
       <c r="D5" s="2"/>
@@ -670,7 +688,7 @@
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
         <v>5</v>
       </c>
       <c r="D7" s="2"/>
@@ -699,7 +717,7 @@
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <v>5</v>
       </c>
       <c r="D8" s="2"/>
@@ -708,7 +726,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2">
+      <c r="J8" s="6">
         <v>5</v>
       </c>
       <c r="K8" s="2"/>
@@ -730,7 +748,7 @@
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="6">
         <v>5</v>
       </c>
       <c r="D9" s="2"/>
@@ -759,7 +777,7 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="6">
         <v>5</v>
       </c>
       <c r="D10" s="2"/>
@@ -788,7 +806,7 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="6">
         <v>5</v>
       </c>
       <c r="D11" s="2"/>
@@ -797,7 +815,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2">
+      <c r="J11" s="6">
         <v>5</v>
       </c>
       <c r="K11" s="2"/>
@@ -819,7 +837,7 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="6">
         <v>5</v>
       </c>
       <c r="D12" s="2"/>
@@ -848,7 +866,7 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="6">
         <v>5</v>
       </c>
       <c r="D13" s="2"/>
@@ -857,7 +875,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2">
+      <c r="J13" s="6">
         <v>5</v>
       </c>
       <c r="K13" s="2"/>
@@ -879,7 +897,7 @@
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="6">
         <v>5</v>
       </c>
       <c r="D14" s="2"/>
@@ -908,7 +926,7 @@
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="6">
         <v>5</v>
       </c>
       <c r="D15" s="2"/>
@@ -964,7 +982,7 @@
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="6">
         <v>5</v>
       </c>
       <c r="D17" s="2"/>
@@ -993,7 +1011,7 @@
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="6">
         <v>5</v>
       </c>
       <c r="D18" s="2"/>
@@ -1022,7 +1040,7 @@
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="6">
         <v>5</v>
       </c>
       <c r="D19" s="2"/>
@@ -1051,7 +1069,7 @@
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="6">
         <v>5</v>
       </c>
       <c r="D20" s="2"/>
@@ -1080,14 +1098,14 @@
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="2">
+      <c r="J21" s="6">
         <v>5</v>
       </c>
       <c r="K21" s="2"/>
@@ -1109,7 +1127,7 @@
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="6">
         <v>5</v>
       </c>
       <c r="D22" s="2"/>
@@ -1138,7 +1156,7 @@
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="6">
         <v>5</v>
       </c>
       <c r="D23" s="2"/>
@@ -1167,7 +1185,7 @@
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="6">
         <v>5</v>
       </c>
       <c r="D24" s="2"/>
@@ -1196,7 +1214,7 @@
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="6">
         <v>5</v>
       </c>
       <c r="D25" s="2"/>
@@ -1205,7 +1223,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="2">
+      <c r="J25" s="6">
         <v>5</v>
       </c>
       <c r="K25" s="2"/>
@@ -1227,7 +1245,7 @@
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="6">
         <v>5</v>
       </c>
       <c r="D26" s="2"/>
@@ -1236,7 +1254,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="2">
+      <c r="J26" s="6">
         <v>5</v>
       </c>
       <c r="K26" s="2"/>
@@ -1258,7 +1276,7 @@
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="6">
         <v>5</v>
       </c>
       <c r="D27" s="2"/>
@@ -1287,7 +1305,7 @@
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="6">
         <v>5</v>
       </c>
       <c r="D28" s="2"/>
@@ -1316,7 +1334,7 @@
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="6">
         <v>5</v>
       </c>
       <c r="D29" s="2"/>
@@ -1345,7 +1363,7 @@
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="6">
         <v>5</v>
       </c>
       <c r="D30" s="2"/>
@@ -1354,7 +1372,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="2">
+      <c r="J30" s="6">
         <v>5</v>
       </c>
       <c r="K30" s="2"/>

--- a/2ИСИП-421/2ИСИП-421.xlsx
+++ b/2ИСИП-421/2ИСИП-421.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-421\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DAC618-835A-4000-B7E9-0F0A87EC3208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDFDFD6-2DCC-4499-AC7F-27451C171630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,14 +216,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -531,10 +531,10 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J30" activeCellId="3" sqref="J21 J25 J26 J30"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -545,27 +545,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
     </row>
     <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
@@ -632,7 +632,7 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>5</v>
       </c>
       <c r="D5" s="2"/>
@@ -688,7 +688,7 @@
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>5</v>
       </c>
       <c r="D7" s="2"/>
@@ -717,7 +717,7 @@
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>5</v>
       </c>
       <c r="D8" s="2"/>
@@ -726,7 +726,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="6">
+      <c r="J8" s="4">
         <v>5</v>
       </c>
       <c r="K8" s="2"/>
@@ -748,7 +748,7 @@
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>5</v>
       </c>
       <c r="D9" s="2"/>
@@ -777,7 +777,7 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>5</v>
       </c>
       <c r="D10" s="2"/>
@@ -785,8 +785,12 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -806,7 +810,7 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>5</v>
       </c>
       <c r="D11" s="2"/>
@@ -815,7 +819,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="6">
+      <c r="J11" s="4">
         <v>5</v>
       </c>
       <c r="K11" s="2"/>
@@ -837,7 +841,7 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>5</v>
       </c>
       <c r="D12" s="2"/>
@@ -866,7 +870,7 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>5</v>
       </c>
       <c r="D13" s="2"/>
@@ -875,7 +879,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="6">
+      <c r="J13" s="4">
         <v>5</v>
       </c>
       <c r="K13" s="2"/>
@@ -897,7 +901,7 @@
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>5</v>
       </c>
       <c r="D14" s="2"/>
@@ -926,7 +930,7 @@
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>5</v>
       </c>
       <c r="D15" s="2"/>
@@ -982,7 +986,7 @@
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <v>5</v>
       </c>
       <c r="D17" s="2"/>
@@ -1011,7 +1015,7 @@
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>5</v>
       </c>
       <c r="D18" s="2"/>
@@ -1040,7 +1044,7 @@
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>5</v>
       </c>
       <c r="D19" s="2"/>
@@ -1069,7 +1073,7 @@
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>5</v>
       </c>
       <c r="D20" s="2"/>
@@ -1098,14 +1102,14 @@
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="6">
+      <c r="J21" s="4">
         <v>5</v>
       </c>
       <c r="K21" s="2"/>
@@ -1127,7 +1131,7 @@
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>5</v>
       </c>
       <c r="D22" s="2"/>
@@ -1156,7 +1160,7 @@
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="4">
         <v>5</v>
       </c>
       <c r="D23" s="2"/>
@@ -1185,7 +1189,7 @@
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <v>5</v>
       </c>
       <c r="D24" s="2"/>
@@ -1214,7 +1218,7 @@
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="4">
         <v>5</v>
       </c>
       <c r="D25" s="2"/>
@@ -1223,7 +1227,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="6">
+      <c r="J25" s="4">
         <v>5</v>
       </c>
       <c r="K25" s="2"/>
@@ -1245,7 +1249,7 @@
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="4">
         <v>5</v>
       </c>
       <c r="D26" s="2"/>
@@ -1254,7 +1258,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="6">
+      <c r="J26" s="4">
         <v>5</v>
       </c>
       <c r="K26" s="2"/>
@@ -1276,7 +1280,7 @@
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="4">
         <v>5</v>
       </c>
       <c r="D27" s="2"/>
@@ -1305,7 +1309,7 @@
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="4">
         <v>5</v>
       </c>
       <c r="D28" s="2"/>
@@ -1334,7 +1338,7 @@
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="4">
         <v>5</v>
       </c>
       <c r="D29" s="2"/>
@@ -1363,7 +1367,7 @@
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="4">
         <v>5</v>
       </c>
       <c r="D30" s="2"/>
@@ -1372,7 +1376,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="6">
+      <c r="J30" s="4">
         <v>5</v>
       </c>
       <c r="K30" s="2"/>

--- a/2ИСИП-421/2ИСИП-421.xlsx
+++ b/2ИСИП-421/2ИСИП-421.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-421\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\2ИСИП-421\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDFDFD6-2DCC-4499-AC7F-27451C171630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA01519-03E0-488E-A53D-5F40EFE67587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,40 +109,34 @@
     <t>Тест</t>
   </si>
   <si>
-    <t>Лаб 1</t>
-  </si>
-  <si>
-    <t>Лаб 2</t>
-  </si>
-  <si>
-    <t>Лаб 3</t>
-  </si>
-  <si>
-    <t>Лаб 4</t>
-  </si>
-  <si>
-    <t>Лаб 5</t>
-  </si>
-  <si>
-    <t>Лаб 6</t>
-  </si>
-  <si>
-    <t>Лаб7</t>
+    <t>Л_1</t>
+  </si>
+  <si>
+    <t>Л_2</t>
+  </si>
+  <si>
+    <t>Л_3</t>
+  </si>
+  <si>
+    <t>Л_4</t>
+  </si>
+  <si>
+    <t>Л_5</t>
+  </si>
+  <si>
+    <t>Л_6</t>
+  </si>
+  <si>
+    <t>Л_7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -205,15 +199,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -222,8 +216,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -528,70 +520,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A2:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.1796875" customWidth="1"/>
     <col min="2" max="2" width="41.6328125" customWidth="1"/>
-    <col min="3" max="21" width="5.1796875" customWidth="1"/>
+    <col min="3" max="3" width="5.1796875" customWidth="1"/>
+    <col min="4" max="10" width="3.6328125" customWidth="1"/>
+    <col min="11" max="21" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-    </row>
-    <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+    <row r="2" spans="1:21" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -604,37 +596,43 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="13" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>5</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -654,14 +652,16 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -681,12 +681,12 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="C7" s="4">
         <v>5</v>
@@ -697,7 +697,9 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="4">
+        <v>5</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -710,12 +712,12 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C8" s="4">
         <v>5</v>
@@ -726,9 +728,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="4">
-        <v>5</v>
-      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -741,12 +741,12 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4">
         <v>5</v>
@@ -756,8 +756,12 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -770,12 +774,12 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C10" s="4">
         <v>5</v>
@@ -785,10 +789,8 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2">
-        <v>5</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="I10" s="2"/>
+      <c r="J10" s="4">
         <v>5</v>
       </c>
       <c r="K10" s="2"/>
@@ -803,12 +805,12 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C11" s="4">
         <v>5</v>
@@ -819,9 +821,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="4">
-        <v>5</v>
-      </c>
+      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -834,12 +834,12 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C12" s="4">
         <v>5</v>
@@ -850,7 +850,9 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="J12" s="4">
+        <v>5</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -863,12 +865,12 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C13" s="4">
         <v>5</v>
@@ -879,9 +881,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="4">
-        <v>5</v>
-      </c>
+      <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -894,12 +894,12 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C14" s="4">
         <v>5</v>
@@ -923,16 +923,14 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4">
-        <v>5</v>
-      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -952,14 +950,16 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -981,10 +981,10 @@
     </row>
     <row r="17" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C17" s="4">
         <v>5</v>
@@ -995,7 +995,9 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2">
+        <v>5</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1010,10 +1012,10 @@
     </row>
     <row r="18" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C18" s="4">
         <v>5</v>
@@ -1039,10 +1041,10 @@
     </row>
     <row r="19" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C19" s="4">
         <v>5</v>
@@ -1068,12 +1070,12 @@
     </row>
     <row r="20" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="C20" s="5">
         <v>5</v>
       </c>
       <c r="D20" s="2"/>
@@ -1082,7 +1084,9 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="J20" s="4">
+        <v>5</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1097,19 +1101,21 @@
     </row>
     <row r="21" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="4">
+        <v>5</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="4">
+      <c r="J21" s="2">
         <v>5</v>
       </c>
       <c r="K21" s="2"/>
@@ -1126,10 +1132,10 @@
     </row>
     <row r="22" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C22" s="4">
         <v>5</v>
@@ -1155,10 +1161,10 @@
     </row>
     <row r="23" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C23" s="4">
         <v>5</v>
@@ -1169,7 +1175,9 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="J23" s="2">
+        <v>5</v>
+      </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1184,10 +1192,10 @@
     </row>
     <row r="24" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C24" s="4">
         <v>5</v>
@@ -1198,7 +1206,9 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="J24" s="4">
+        <v>5</v>
+      </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1213,10 +1223,10 @@
     </row>
     <row r="25" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C25" s="4">
         <v>5</v>
@@ -1244,10 +1254,10 @@
     </row>
     <row r="26" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C26" s="4">
         <v>5</v>
@@ -1258,9 +1268,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="4">
-        <v>5</v>
-      </c>
+      <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -1275,10 +1283,10 @@
     </row>
     <row r="27" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C27" s="4">
         <v>5</v>
@@ -1304,10 +1312,10 @@
     </row>
     <row r="28" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C28" s="4">
         <v>5</v>
@@ -1333,10 +1341,10 @@
     </row>
     <row r="29" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C29" s="4">
         <v>5</v>
@@ -1347,7 +1355,9 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="J29" s="4">
+        <v>5</v>
+      </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -1362,23 +1372,19 @@
     </row>
     <row r="30" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="4">
-        <v>5</v>
-      </c>
+      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="4">
-        <v>5</v>
-      </c>
+      <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -1393,12 +1399,14 @@
     </row>
     <row r="31" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2">
+        <v>5</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1418,59 +1426,29 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" ht="13" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>28</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-    </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="1">
-    <mergeCell ref="C1:W1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2ИСИП-421/2ИСИП-421.xlsx
+++ b/2ИСИП-421/2ИСИП-421.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\2ИСИП-421\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-421\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA01519-03E0-488E-A53D-5F40EFE67587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F101216B-E54E-4DC7-99E9-A562CF0B5E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Акобян Арман</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Шахмурзаев Шамиль</t>
   </si>
   <si>
-    <t>Тест</t>
-  </si>
-  <si>
     <t>Л_1</t>
   </si>
   <si>
@@ -128,6 +125,27 @@
   </si>
   <si>
     <t>Л_7</t>
+  </si>
+  <si>
+    <t>Т_1</t>
+  </si>
+  <si>
+    <t>Л_8</t>
+  </si>
+  <si>
+    <t>Л_9</t>
+  </si>
+  <si>
+    <t>Л_10</t>
+  </si>
+  <si>
+    <t>Т_2</t>
+  </si>
+  <si>
+    <t>Т_3</t>
+  </si>
+  <si>
+    <t>Т_4</t>
   </si>
 </sst>
 </file>
@@ -520,66 +538,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:U32"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.1796875" customWidth="1"/>
     <col min="2" max="2" width="41.6328125" customWidth="1"/>
-    <col min="3" max="3" width="5.1796875" customWidth="1"/>
-    <col min="4" max="10" width="3.6328125" customWidth="1"/>
-    <col min="11" max="21" width="5.1796875" customWidth="1"/>
+    <col min="3" max="16" width="2.90625" customWidth="1"/>
+    <col min="17" max="21" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:20" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -594,9 +620,8 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-    </row>
-    <row r="4" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -606,9 +631,6 @@
       <c r="C4" s="4">
         <v>5</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -623,9 +645,8 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-    </row>
-    <row r="5" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -633,9 +654,6 @@
         <v>1</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -650,9 +668,8 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-    </row>
-    <row r="6" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -662,9 +679,6 @@
       <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -679,9 +693,8 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-    </row>
-    <row r="7" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -691,18 +704,15 @@
       <c r="C7" s="4">
         <v>5</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="4">
-        <v>5</v>
-      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="M7" s="4">
+        <v>5</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -710,9 +720,8 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-    </row>
-    <row r="8" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -722,9 +731,6 @@
       <c r="C8" s="4">
         <v>5</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -739,9 +745,8 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-    </row>
-    <row r="9" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -751,30 +756,31 @@
       <c r="C9" s="4">
         <v>5</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9">
+        <v>5</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2">
-        <v>5</v>
-      </c>
-      <c r="J9" s="2">
-        <v>5</v>
-      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="L9" s="2">
+        <v>5</v>
+      </c>
+      <c r="M9" s="2">
+        <v>5</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="P9" s="2">
+        <v>5</v>
+      </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-    </row>
-    <row r="10" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -784,18 +790,15 @@
       <c r="C10" s="4">
         <v>5</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="4">
-        <v>5</v>
-      </c>
+      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="M10" s="4">
+        <v>5</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -803,9 +806,8 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-    </row>
-    <row r="11" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -815,9 +817,6 @@
       <c r="C11" s="4">
         <v>5</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -832,9 +831,8 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-    </row>
-    <row r="12" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -844,18 +842,15 @@
       <c r="C12" s="4">
         <v>5</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="4">
-        <v>5</v>
-      </c>
+      <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="M12" s="4">
+        <v>5</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -863,9 +858,8 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-    </row>
-    <row r="13" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -875,9 +869,6 @@
       <c r="C13" s="4">
         <v>5</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -892,9 +883,8 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-    </row>
-    <row r="14" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -904,9 +894,6 @@
       <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -921,9 +908,8 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-    </row>
-    <row r="15" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -931,9 +917,6 @@
         <v>11</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -948,9 +931,8 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-    </row>
-    <row r="16" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -960,9 +942,6 @@
       <c r="C16" s="4">
         <v>5</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -972,14 +951,15 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
+      <c r="P16" s="2">
+        <v>5</v>
+      </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-    </row>
-    <row r="17" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -989,18 +969,15 @@
       <c r="C17" s="4">
         <v>5</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2">
-        <v>5</v>
-      </c>
+      <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+      <c r="M17" s="2">
+        <v>5</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -1008,9 +985,8 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-    </row>
-    <row r="18" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1020,9 +996,6 @@
       <c r="C18" s="4">
         <v>5</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1037,9 +1010,8 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-    </row>
-    <row r="19" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1049,9 +1021,6 @@
       <c r="C19" s="4">
         <v>5</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1066,9 +1035,8 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-    </row>
-    <row r="20" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1078,28 +1046,26 @@
       <c r="C20" s="5">
         <v>5</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="4">
-        <v>5</v>
-      </c>
+      <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="M20" s="4">
+        <v>5</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
+      <c r="P20" s="2">
+        <v>5</v>
+      </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-    </row>
-    <row r="21" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1109,18 +1075,15 @@
       <c r="C21" s="4">
         <v>5</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="2">
-        <v>5</v>
-      </c>
+      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="M21" s="2">
+        <v>5</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -1128,9 +1091,8 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-    </row>
-    <row r="22" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1140,9 +1102,6 @@
       <c r="C22" s="4">
         <v>5</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1157,9 +1116,8 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-    </row>
-    <row r="23" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1169,18 +1127,15 @@
       <c r="C23" s="4">
         <v>5</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="2">
-        <v>5</v>
-      </c>
+      <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+      <c r="M23" s="2">
+        <v>5</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -1188,9 +1143,8 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-    </row>
-    <row r="24" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1200,28 +1154,26 @@
       <c r="C24" s="4">
         <v>5</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="4">
-        <v>5</v>
-      </c>
+      <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
+      <c r="M24" s="4">
+        <v>5</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
+      <c r="P24" s="2">
+        <v>5</v>
+      </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-    </row>
-    <row r="25" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1231,18 +1183,15 @@
       <c r="C25" s="4">
         <v>5</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="4">
-        <v>5</v>
-      </c>
+      <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
+      <c r="M25" s="4">
+        <v>5</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -1250,9 +1199,8 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-    </row>
-    <row r="26" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1262,9 +1210,6 @@
       <c r="C26" s="4">
         <v>5</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1279,9 +1224,8 @@
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-    </row>
-    <row r="27" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1291,9 +1235,9 @@
       <c r="C27" s="4">
         <v>5</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27">
+        <v>5</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1308,9 +1252,8 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-    </row>
-    <row r="28" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1320,9 +1263,6 @@
       <c r="C28" s="4">
         <v>5</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1332,14 +1272,15 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
+      <c r="P28" s="2">
+        <v>5</v>
+      </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-    </row>
-    <row r="29" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1349,18 +1290,15 @@
       <c r="C29" s="4">
         <v>5</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="4">
-        <v>5</v>
-      </c>
+      <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
+      <c r="M29" s="4">
+        <v>5</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -1368,9 +1306,8 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-    </row>
-    <row r="30" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1378,9 +1315,6 @@
         <v>26</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -1395,9 +1329,8 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-    </row>
-    <row r="31" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1407,9 +1340,6 @@
       <c r="C31" s="2">
         <v>5</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -1424,13 +1354,9 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:20" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -1445,7 +1371,6 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/2ИСИП-421/2ИСИП-421.xlsx
+++ b/2ИСИП-421/2ИСИП-421.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-421\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F101216B-E54E-4DC7-99E9-A562CF0B5E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E0A764-A9B7-44E6-B2FC-874001F79044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,7 +170,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,12 +180,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,9 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -541,10 +533,10 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -756,7 +748,7 @@
       <c r="C9" s="4">
         <v>5</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <v>5</v>
       </c>
       <c r="G9" s="2"/>
@@ -764,7 +756,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2">
+      <c r="L9" s="4">
         <v>5</v>
       </c>
       <c r="M9" s="2">
@@ -1043,7 +1035,7 @@
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>5</v>
       </c>
       <c r="G20" s="2"/>
@@ -1235,7 +1227,7 @@
       <c r="C27" s="4">
         <v>5</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="5">
         <v>5</v>
       </c>
       <c r="G27" s="2"/>
@@ -1337,7 +1329,7 @@
       <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="4">
         <v>5</v>
       </c>
       <c r="G31" s="2"/>

--- a/2ИСИП-421/2ИСИП-421.xlsx
+++ b/2ИСИП-421/2ИСИП-421.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-421\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E0A764-A9B7-44E6-B2FC-874001F79044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6672323-C5AB-43F7-AD10-7CA50442167A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>Акобян Арман</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Т_4</t>
+  </si>
+  <si>
+    <t>Очень Хочет 5</t>
   </si>
 </sst>
 </file>
@@ -530,13 +533,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -951,7 +954,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -978,7 +981,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1003,7 +1006,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1028,7 +1031,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1057,7 +1060,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1084,7 +1087,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1109,7 +1112,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1136,7 +1139,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1165,7 +1168,7 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1192,7 +1195,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1217,7 +1220,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1245,7 +1248,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1272,7 +1275,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1299,7 +1302,7 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1322,7 +1325,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1343,11 +1346,38 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-    </row>
-    <row r="32" spans="1:20" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>

--- a/2ИСИП-421/2ИСИП-421.xlsx
+++ b/2ИСИП-421/2ИСИП-421.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-421\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-421\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6672323-C5AB-43F7-AD10-7CA50442167A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004B0A32-75B4-484E-85DE-7FFFACB3D644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Акобян Арман</t>
   </si>
@@ -536,10 +536,10 @@
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA31" sqref="AA31"/>
+      <selection pane="bottomRight" activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -550,8 +550,8 @@
     <col min="17" max="21" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:20" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:24" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
@@ -599,7 +599,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -616,7 +616,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -641,7 +641,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -664,7 +664,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -689,7 +689,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -716,7 +716,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -741,7 +741,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -775,7 +775,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -802,7 +802,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -827,7 +827,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -854,7 +854,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -879,7 +879,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -904,7 +904,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="18.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -925,9 +925,23 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-    </row>
-    <row r="16" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>

--- a/2ИСИП-421/2ИСИП-421.xlsx
+++ b/2ИСИП-421/2ИСИП-421.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-421\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004B0A32-75B4-484E-85DE-7FFFACB3D644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C3323D-BC3C-4EBE-8DF5-AD9ABBE0A348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,10 +536,10 @@
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X15" sqref="X15"/>
+      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -699,9 +699,15 @@
       <c r="C7" s="4">
         <v>5</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -754,9 +760,15 @@
       <c r="F9" s="5">
         <v>5</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="4">
@@ -785,9 +797,15 @@
       <c r="C10" s="4">
         <v>5</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -837,9 +855,15 @@
       <c r="C12" s="4">
         <v>5</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>5</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -864,9 +888,15 @@
       <c r="C13" s="4">
         <v>5</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>5</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -912,9 +942,15 @@
         <v>11</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2">
+        <v>5</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -951,9 +987,15 @@
       <c r="C16" s="4">
         <v>5</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="G16" s="2">
+        <v>5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
+      <c r="I16" s="2">
+        <v>5</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1030,9 +1072,15 @@
       <c r="C19" s="4">
         <v>5</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="G19" s="2">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2">
+        <v>5</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1055,9 +1103,15 @@
       <c r="C20" s="4">
         <v>5</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="G20" s="2">
+        <v>5</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2">
+        <v>5</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1084,9 +1138,15 @@
       <c r="C21" s="4">
         <v>5</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="G21" s="2">
+        <v>5</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2">
+        <v>5</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1111,9 +1171,15 @@
       <c r="C22" s="4">
         <v>5</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
+      <c r="H22" s="2">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2">
+        <v>5</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1136,9 +1202,15 @@
       <c r="C23" s="4">
         <v>5</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="G23" s="2">
+        <v>5</v>
+      </c>
+      <c r="H23" s="2">
+        <v>5</v>
+      </c>
+      <c r="I23" s="2">
+        <v>5</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1163,9 +1235,15 @@
       <c r="C24" s="4">
         <v>5</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="G24" s="2">
+        <v>5</v>
+      </c>
+      <c r="H24" s="2">
+        <v>5</v>
+      </c>
+      <c r="I24" s="2">
+        <v>5</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1192,9 +1270,15 @@
       <c r="C25" s="4">
         <v>5</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="G25" s="2">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2">
+        <v>5</v>
+      </c>
+      <c r="I25" s="2">
+        <v>5</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1219,8 +1303,12 @@
       <c r="C26" s="4">
         <v>5</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="2">
+        <v>5</v>
+      </c>
+      <c r="H26" s="2">
+        <v>5</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -1247,8 +1335,12 @@
       <c r="F27" s="5">
         <v>5</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="G27" s="2">
+        <v>5</v>
+      </c>
+      <c r="H27" s="2">
+        <v>5</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1272,8 +1364,12 @@
       <c r="C28" s="4">
         <v>5</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="G28" s="2">
+        <v>5</v>
+      </c>
+      <c r="H28" s="2">
+        <v>5</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -1300,7 +1396,9 @@
         <v>5</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <v>5</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>

--- a/2ИСИП-421/2ИСИП-421.xlsx
+++ b/2ИСИП-421/2ИСИП-421.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-421\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C3323D-BC3C-4EBE-8DF5-AD9ABBE0A348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEDE5D0-C4A3-4498-B042-CCECEC700F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,10 +536,10 @@
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -708,7 +708,9 @@
       <c r="I7" s="2">
         <v>5</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2">
+        <v>5</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="4">
@@ -769,7 +771,9 @@
       <c r="I9" s="2">
         <v>5</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4">
         <v>5</v>
@@ -806,7 +810,9 @@
       <c r="I10" s="2">
         <v>5</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2">
+        <v>5</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="4">
@@ -864,7 +870,9 @@
       <c r="I12" s="2">
         <v>5</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="4">
@@ -1309,7 +1317,9 @@
       <c r="H26" s="2">
         <v>5</v>
       </c>
-      <c r="I26" s="2"/>
+      <c r="I26" s="2">
+        <v>5</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -1341,7 +1351,9 @@
       <c r="H27" s="2">
         <v>5</v>
       </c>
-      <c r="I27" s="2"/>
+      <c r="I27" s="2">
+        <v>5</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -1370,7 +1382,9 @@
       <c r="H28" s="2">
         <v>5</v>
       </c>
-      <c r="I28" s="2"/>
+      <c r="I28" s="2">
+        <v>5</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1399,7 +1413,9 @@
       <c r="H29" s="2">
         <v>5</v>
       </c>
-      <c r="I29" s="2"/>
+      <c r="I29" s="2">
+        <v>5</v>
+      </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>

--- a/2ИСИП-421/2ИСИП-421.xlsx
+++ b/2ИСИП-421/2ИСИП-421.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-421\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEDE5D0-C4A3-4498-B042-CCECEC700F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6403242-821A-4201-94B1-842344A8D2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,7 +539,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -711,14 +711,24 @@
       <c r="J7" s="2">
         <v>5</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="K7" s="2">
+        <v>5</v>
+      </c>
+      <c r="L7" s="2">
+        <v>6</v>
+      </c>
       <c r="M7" s="4">
         <v>5</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="N7" s="2">
+        <v>5</v>
+      </c>
+      <c r="O7" s="2">
+        <v>5</v>
+      </c>
+      <c r="P7" s="2">
+        <v>5</v>
+      </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -774,7 +784,9 @@
       <c r="J9" s="2">
         <v>5</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2">
+        <v>5</v>
+      </c>
       <c r="L9" s="4">
         <v>5</v>
       </c>
@@ -782,7 +794,9 @@
         <v>5</v>
       </c>
       <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="O9" s="2">
+        <v>5</v>
+      </c>
       <c r="P9" s="2">
         <v>5</v>
       </c>
@@ -813,14 +827,24 @@
       <c r="J10" s="2">
         <v>5</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="K10" s="2">
+        <v>5</v>
+      </c>
+      <c r="L10" s="2">
+        <v>5</v>
+      </c>
       <c r="M10" s="4">
         <v>5</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="N10" s="2">
+        <v>5</v>
+      </c>
+      <c r="O10" s="2">
+        <v>5</v>
+      </c>
+      <c r="P10" s="2">
+        <v>5</v>
+      </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -873,14 +897,24 @@
       <c r="J12" s="2">
         <v>5</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="K12" s="2">
+        <v>5</v>
+      </c>
+      <c r="L12" s="2">
+        <v>5</v>
+      </c>
       <c r="M12" s="4">
         <v>5</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
+      <c r="N12" s="2">
+        <v>5</v>
+      </c>
+      <c r="O12" s="2">
+        <v>5</v>
+      </c>
+      <c r="P12" s="2">
+        <v>5</v>
+      </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -905,13 +939,27 @@
       <c r="I13" s="2">
         <v>5</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2">
+        <v>5</v>
+      </c>
+      <c r="L13" s="2">
+        <v>5</v>
+      </c>
+      <c r="M13" s="2">
+        <v>5</v>
+      </c>
+      <c r="N13" s="2">
+        <v>5</v>
+      </c>
+      <c r="O13" s="2">
+        <v>5</v>
+      </c>
+      <c r="P13" s="2">
+        <v>5</v>
+      </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -959,13 +1007,27 @@
       <c r="I15" s="2">
         <v>5</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
+      <c r="J15" s="2">
+        <v>5</v>
+      </c>
+      <c r="K15" s="2">
+        <v>5</v>
+      </c>
+      <c r="L15" s="2">
+        <v>5</v>
+      </c>
+      <c r="M15" s="2">
+        <v>5</v>
+      </c>
+      <c r="N15" s="2">
+        <v>5</v>
+      </c>
+      <c r="O15" s="2">
+        <v>5</v>
+      </c>
+      <c r="P15" s="2">
+        <v>5</v>
+      </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -1004,12 +1066,24 @@
       <c r="I16" s="2">
         <v>5</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="J16" s="2">
+        <v>5</v>
+      </c>
+      <c r="K16" s="2">
+        <v>5</v>
+      </c>
+      <c r="L16" s="2">
+        <v>5</v>
+      </c>
+      <c r="M16" s="2">
+        <v>5</v>
+      </c>
+      <c r="N16" s="2">
+        <v>5</v>
+      </c>
+      <c r="O16" s="2">
+        <v>5</v>
+      </c>
       <c r="P16" s="2">
         <v>5</v>
       </c>
@@ -1089,13 +1163,27 @@
       <c r="I19" s="2">
         <v>5</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
+      <c r="J19" s="2">
+        <v>5</v>
+      </c>
+      <c r="K19" s="2">
+        <v>5</v>
+      </c>
+      <c r="L19" s="2">
+        <v>5</v>
+      </c>
+      <c r="M19" s="2">
+        <v>5</v>
+      </c>
+      <c r="N19" s="2">
+        <v>5</v>
+      </c>
+      <c r="O19" s="2">
+        <v>5</v>
+      </c>
+      <c r="P19" s="2">
+        <v>5</v>
+      </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -1120,14 +1208,24 @@
       <c r="I20" s="2">
         <v>5</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="J20" s="2">
+        <v>5</v>
+      </c>
+      <c r="K20" s="2">
+        <v>5</v>
+      </c>
+      <c r="L20" s="2">
+        <v>5</v>
+      </c>
       <c r="M20" s="4">
         <v>5</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="N20" s="2">
+        <v>5</v>
+      </c>
+      <c r="O20" s="2">
+        <v>5</v>
+      </c>
       <c r="P20" s="2">
         <v>5</v>
       </c>
@@ -1155,14 +1253,24 @@
       <c r="I21" s="2">
         <v>5</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="J21" s="2">
+        <v>5</v>
+      </c>
+      <c r="K21" s="2">
+        <v>5</v>
+      </c>
+      <c r="L21" s="2">
+        <v>5</v>
+      </c>
       <c r="M21" s="2">
         <v>5</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="N21" s="2">
+        <v>5</v>
+      </c>
+      <c r="O21" s="2">
+        <v>5</v>
+      </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
@@ -1188,12 +1296,24 @@
       <c r="I22" s="2">
         <v>5</v>
       </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="J22" s="2">
+        <v>5</v>
+      </c>
+      <c r="K22" s="2">
+        <v>5</v>
+      </c>
+      <c r="L22" s="2">
+        <v>5</v>
+      </c>
+      <c r="M22" s="2">
+        <v>5</v>
+      </c>
+      <c r="N22" s="2">
+        <v>5</v>
+      </c>
+      <c r="O22" s="2">
+        <v>5</v>
+      </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -1219,14 +1339,24 @@
       <c r="I23" s="2">
         <v>5</v>
       </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="J23" s="2">
+        <v>5</v>
+      </c>
+      <c r="K23" s="2">
+        <v>5</v>
+      </c>
+      <c r="L23" s="2">
+        <v>5</v>
+      </c>
       <c r="M23" s="2">
         <v>5</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="N23" s="2">
+        <v>5</v>
+      </c>
+      <c r="O23" s="2">
+        <v>5</v>
+      </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -1252,14 +1382,24 @@
       <c r="I24" s="2">
         <v>5</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="J24" s="2">
+        <v>5</v>
+      </c>
+      <c r="K24" s="2">
+        <v>5</v>
+      </c>
+      <c r="L24" s="2">
+        <v>5</v>
+      </c>
       <c r="M24" s="4">
         <v>5</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="N24" s="2">
+        <v>5</v>
+      </c>
+      <c r="O24" s="2">
+        <v>5</v>
+      </c>
       <c r="P24" s="2">
         <v>5</v>
       </c>
@@ -1287,14 +1427,24 @@
       <c r="I25" s="2">
         <v>5</v>
       </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="J25" s="2">
+        <v>5</v>
+      </c>
+      <c r="K25" s="2">
+        <v>5</v>
+      </c>
+      <c r="L25" s="2">
+        <v>5</v>
+      </c>
       <c r="M25" s="4">
         <v>5</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="N25" s="2">
+        <v>5</v>
+      </c>
+      <c r="O25" s="2">
+        <v>5</v>
+      </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
@@ -1320,12 +1470,24 @@
       <c r="I26" s="2">
         <v>5</v>
       </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="J26" s="2">
+        <v>5</v>
+      </c>
+      <c r="K26" s="2">
+        <v>5</v>
+      </c>
+      <c r="L26" s="2">
+        <v>5</v>
+      </c>
+      <c r="M26" s="2">
+        <v>5</v>
+      </c>
+      <c r="N26" s="2">
+        <v>5</v>
+      </c>
+      <c r="O26" s="2">
+        <v>5</v>
+      </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
@@ -1354,12 +1516,24 @@
       <c r="I27" s="2">
         <v>5</v>
       </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="J27" s="2">
+        <v>5</v>
+      </c>
+      <c r="K27" s="2">
+        <v>5</v>
+      </c>
+      <c r="L27" s="2">
+        <v>5</v>
+      </c>
+      <c r="M27" s="2">
+        <v>5</v>
+      </c>
+      <c r="N27" s="2">
+        <v>5</v>
+      </c>
+      <c r="O27" s="2">
+        <v>5</v>
+      </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
@@ -1385,12 +1559,24 @@
       <c r="I28" s="2">
         <v>5</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="J28" s="2">
+        <v>5</v>
+      </c>
+      <c r="K28" s="2">
+        <v>5</v>
+      </c>
+      <c r="L28" s="2">
+        <v>5</v>
+      </c>
+      <c r="M28" s="2">
+        <v>5</v>
+      </c>
+      <c r="N28" s="2">
+        <v>5</v>
+      </c>
+      <c r="O28" s="2">
+        <v>5</v>
+      </c>
       <c r="P28" s="2">
         <v>5</v>
       </c>
@@ -1416,14 +1602,24 @@
       <c r="I29" s="2">
         <v>5</v>
       </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
+      <c r="J29" s="2">
+        <v>5</v>
+      </c>
+      <c r="K29" s="2">
+        <v>5</v>
+      </c>
+      <c r="L29" s="2">
+        <v>5</v>
+      </c>
       <c r="M29" s="4">
         <v>5</v>
       </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="N29" s="2">
+        <v>5</v>
+      </c>
+      <c r="O29" s="2">
+        <v>5</v>
+      </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>

--- a/2ИСИП-421/2ИСИП-421.xlsx
+++ b/2ИСИП-421/2ИСИП-421.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-421\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6403242-821A-4201-94B1-842344A8D2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA70034-0AAA-4D3E-8A21-D0098F1C5C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Акобян Арман</t>
   </si>
@@ -149,6 +149,15 @@
   </si>
   <si>
     <t>Очень Хочет 5</t>
+  </si>
+  <si>
+    <t>Л_11</t>
+  </si>
+  <si>
+    <t>Л_12</t>
+  </si>
+  <si>
+    <t>Л_13</t>
   </si>
 </sst>
 </file>
@@ -539,7 +548,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -594,9 +603,15 @@
       <c r="P2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -674,17 +689,39 @@
       <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2">
+        <v>5</v>
+      </c>
+      <c r="L6" s="2">
+        <v>5</v>
+      </c>
+      <c r="M6" s="2">
+        <v>5</v>
+      </c>
+      <c r="N6" s="2">
+        <v>5</v>
+      </c>
+      <c r="O6" s="2">
+        <v>5</v>
+      </c>
+      <c r="P6" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>5</v>
+      </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -729,8 +766,12 @@
       <c r="P7" s="2">
         <v>5</v>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="Q7" s="2">
+        <v>5</v>
+      </c>
+      <c r="R7" s="2">
+        <v>5</v>
+      </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
@@ -800,9 +841,15 @@
       <c r="P9" s="2">
         <v>5</v>
       </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="Q9" s="2">
+        <v>5</v>
+      </c>
+      <c r="R9" s="2">
+        <v>5</v>
+      </c>
+      <c r="S9" s="2">
+        <v>5</v>
+      </c>
       <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -845,8 +892,12 @@
       <c r="P10" s="2">
         <v>5</v>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="Q10" s="2">
+        <v>5</v>
+      </c>
+      <c r="R10" s="2">
+        <v>5</v>
+      </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
@@ -915,9 +966,15 @@
       <c r="P12" s="2">
         <v>5</v>
       </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
+      <c r="Q12" s="2">
+        <v>5</v>
+      </c>
+      <c r="R12" s="2">
+        <v>5</v>
+      </c>
+      <c r="S12" s="2">
+        <v>5</v>
+      </c>
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -960,7 +1017,9 @@
       <c r="P13" s="2">
         <v>5</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="2">
+        <v>5</v>
+      </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
@@ -1028,7 +1087,9 @@
       <c r="P15" s="2">
         <v>5</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="2">
+        <v>5</v>
+      </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2" t="s">
@@ -1087,7 +1148,9 @@
       <c r="P16" s="2">
         <v>5</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="2">
+        <v>5</v>
+      </c>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
@@ -1102,19 +1165,48 @@
       <c r="C17" s="4">
         <v>5</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2">
+        <v>5</v>
+      </c>
+      <c r="J17" s="2">
+        <v>5</v>
+      </c>
+      <c r="K17" s="2">
+        <v>5</v>
+      </c>
+      <c r="L17" s="2">
+        <v>5</v>
+      </c>
       <c r="M17" s="2">
         <v>5</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
+      <c r="N17" s="2">
+        <v>5</v>
+      </c>
+      <c r="O17" s="2">
+        <v>5</v>
+      </c>
+      <c r="P17" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>5</v>
+      </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -1184,9 +1276,15 @@
       <c r="P19" s="2">
         <v>5</v>
       </c>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
+      <c r="Q19" s="2">
+        <v>5</v>
+      </c>
+      <c r="R19" s="2">
+        <v>5</v>
+      </c>
+      <c r="S19" s="2">
+        <v>5</v>
+      </c>
       <c r="T19" s="2"/>
     </row>
     <row r="20" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1229,7 +1327,9 @@
       <c r="P20" s="2">
         <v>5</v>
       </c>
-      <c r="Q20" s="2"/>
+      <c r="Q20" s="2">
+        <v>5</v>
+      </c>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
@@ -1271,10 +1371,18 @@
       <c r="O21" s="2">
         <v>5</v>
       </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
+      <c r="P21" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>5</v>
+      </c>
+      <c r="R21" s="2">
+        <v>5</v>
+      </c>
+      <c r="S21" s="2">
+        <v>5</v>
+      </c>
       <c r="T21" s="2"/>
     </row>
     <row r="22" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1314,10 +1422,18 @@
       <c r="O22" s="2">
         <v>5</v>
       </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
+      <c r="P22" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>5</v>
+      </c>
+      <c r="R22" s="2">
+        <v>5</v>
+      </c>
+      <c r="S22" s="2">
+        <v>5</v>
+      </c>
       <c r="T22" s="2"/>
     </row>
     <row r="23" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1357,8 +1473,12 @@
       <c r="O23" s="2">
         <v>5</v>
       </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
+      <c r="P23" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>5</v>
+      </c>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
@@ -1403,9 +1523,15 @@
       <c r="P24" s="2">
         <v>5</v>
       </c>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
+      <c r="Q24" s="2">
+        <v>5</v>
+      </c>
+      <c r="R24" s="2">
+        <v>5</v>
+      </c>
+      <c r="S24" s="2">
+        <v>5</v>
+      </c>
       <c r="T24" s="2"/>
     </row>
     <row r="25" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1446,9 +1572,15 @@
         <v>5</v>
       </c>
       <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
+      <c r="Q25" s="2">
+        <v>5</v>
+      </c>
+      <c r="R25" s="2">
+        <v>5</v>
+      </c>
+      <c r="S25" s="2">
+        <v>5</v>
+      </c>
       <c r="T25" s="2"/>
     </row>
     <row r="26" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1488,10 +1620,18 @@
       <c r="O26" s="2">
         <v>5</v>
       </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
+      <c r="P26" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>5</v>
+      </c>
+      <c r="R26" s="2">
+        <v>5</v>
+      </c>
+      <c r="S26" s="2">
+        <v>5</v>
+      </c>
       <c r="T26" s="2"/>
     </row>
     <row r="27" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1534,9 +1674,15 @@
       <c r="O27" s="2">
         <v>5</v>
       </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
+      <c r="P27" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>5</v>
+      </c>
+      <c r="R27" s="2">
+        <v>5</v>
+      </c>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
@@ -1580,9 +1726,15 @@
       <c r="P28" s="2">
         <v>5</v>
       </c>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
+      <c r="Q28" s="2">
+        <v>5</v>
+      </c>
+      <c r="R28" s="2">
+        <v>5</v>
+      </c>
+      <c r="S28" s="2">
+        <v>5</v>
+      </c>
       <c r="T28" s="2"/>
     </row>
     <row r="29" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1620,10 +1772,16 @@
       <c r="O29" s="2">
         <v>5</v>
       </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
+      <c r="P29" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>5</v>
+      </c>
       <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
+      <c r="S29" s="2">
+        <v>5</v>
+      </c>
       <c r="T29" s="2"/>
     </row>
     <row r="30" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/2ИСИП-421/2ИСИП-421.xlsx
+++ b/2ИСИП-421/2ИСИП-421.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-421\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA70034-0AAA-4D3E-8A21-D0098F1C5C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED44A72-BF38-417E-9C28-F3CC215FF7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,24 @@
     <sheet name="YUrchenkova I. A." sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>Акобян Арман</t>
   </si>
@@ -158,6 +171,9 @@
   </si>
   <si>
     <t>Л_13</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -544,11 +560,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -655,6 +671,10 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
+      <c r="U4">
+        <f>SUM(C4:S4)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -678,6 +698,10 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
+      <c r="U5">
+        <f t="shared" ref="U5:U31" si="0">SUM(C5:S5)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -689,6 +713,12 @@
       <c r="C6" s="4">
         <v>5</v>
       </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
       <c r="G6" s="2">
         <v>5</v>
       </c>
@@ -725,6 +755,13 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="V6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -736,6 +773,9 @@
       <c r="C7" s="4">
         <v>5</v>
       </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
       <c r="G7" s="2">
         <v>5</v>
       </c>
@@ -774,6 +814,13 @@
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="V7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -799,6 +846,10 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -810,6 +861,12 @@
       <c r="C9" s="4">
         <v>5</v>
       </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
       <c r="F9" s="5">
         <v>5</v>
       </c>
@@ -851,6 +908,13 @@
         <v>5</v>
       </c>
       <c r="T9" s="2"/>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="V9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -900,6 +964,13 @@
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="V10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -925,6 +996,10 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -976,6 +1051,13 @@
         <v>5</v>
       </c>
       <c r="T12" s="2"/>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="V12" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -987,6 +1069,12 @@
       <c r="C13" s="4">
         <v>5</v>
       </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
       <c r="G13" s="2">
         <v>5</v>
       </c>
@@ -1023,6 +1111,13 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="V13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -1048,6 +1143,10 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:24" ht="18.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1056,7 +1155,15 @@
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
       <c r="G15" s="2">
         <v>5</v>
       </c>
@@ -1095,18 +1202,15 @@
       <c r="T15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U15" s="2" t="s">
-        <v>42</v>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
     </row>
     <row r="16" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1118,6 +1222,12 @@
       <c r="C16" s="4">
         <v>5</v>
       </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
       <c r="G16" s="2">
         <v>5</v>
       </c>
@@ -1154,6 +1264,13 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="V16" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1210,6 +1327,13 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="V17" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="18" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1235,6 +1359,10 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -1246,6 +1374,12 @@
       <c r="C19" s="4">
         <v>5</v>
       </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
       <c r="G19" s="2">
         <v>5</v>
       </c>
@@ -1286,6 +1420,13 @@
         <v>5</v>
       </c>
       <c r="T19" s="2"/>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="V19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="20" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -1297,6 +1438,12 @@
       <c r="C20" s="4">
         <v>5</v>
       </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
       <c r="G20" s="2">
         <v>5</v>
       </c>
@@ -1333,6 +1480,13 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="V20" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="21" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -1344,6 +1498,12 @@
       <c r="C21" s="4">
         <v>5</v>
       </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
       <c r="G21" s="2">
         <v>5</v>
       </c>
@@ -1384,6 +1544,13 @@
         <v>5</v>
       </c>
       <c r="T21" s="2"/>
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="V21" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="22" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -1395,6 +1562,12 @@
       <c r="C22" s="4">
         <v>5</v>
       </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
       <c r="G22" s="2">
         <v>5</v>
       </c>
@@ -1435,6 +1608,13 @@
         <v>5</v>
       </c>
       <c r="T22" s="2"/>
+      <c r="U22">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="V22" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="23" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -1446,6 +1626,12 @@
       <c r="C23" s="4">
         <v>5</v>
       </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
       <c r="G23" s="2">
         <v>5</v>
       </c>
@@ -1482,6 +1668,13 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="V23" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="24" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -1493,6 +1686,12 @@
       <c r="C24" s="4">
         <v>5</v>
       </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
       <c r="G24" s="2">
         <v>5</v>
       </c>
@@ -1533,6 +1732,13 @@
         <v>5</v>
       </c>
       <c r="T24" s="2"/>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="V24" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -1544,6 +1750,12 @@
       <c r="C25" s="4">
         <v>5</v>
       </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
       <c r="G25" s="2">
         <v>5</v>
       </c>
@@ -1582,6 +1794,13 @@
         <v>5</v>
       </c>
       <c r="T25" s="2"/>
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="V25" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="26" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -1593,6 +1812,12 @@
       <c r="C26" s="4">
         <v>5</v>
       </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
       <c r="G26" s="2">
         <v>5</v>
       </c>
@@ -1633,6 +1858,13 @@
         <v>5</v>
       </c>
       <c r="T26" s="2"/>
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="V26" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="27" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -1644,6 +1876,12 @@
       <c r="C27" s="4">
         <v>5</v>
       </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
       <c r="F27" s="5">
         <v>5</v>
       </c>
@@ -1685,6 +1923,13 @@
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="V27" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="28" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -1696,6 +1941,12 @@
       <c r="C28" s="4">
         <v>5</v>
       </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
       <c r="G28" s="2">
         <v>5</v>
       </c>
@@ -1736,6 +1987,13 @@
         <v>5</v>
       </c>
       <c r="T28" s="2"/>
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="V28" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="29" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -1747,6 +2005,12 @@
       <c r="C29" s="4">
         <v>5</v>
       </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2">
         <v>5</v>
@@ -1783,6 +2047,13 @@
         <v>5</v>
       </c>
       <c r="T29" s="2"/>
+      <c r="U29">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="V29" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="30" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -1806,6 +2077,10 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
+      <c r="U30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:27" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
@@ -1828,36 +2103,21 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-      <c r="R31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
       <c r="T31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA31" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
@@ -1878,6 +2138,18 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <conditionalFormatting sqref="U4:U31">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2ИСИП-421/2ИСИП-421.xlsx
+++ b/2ИСИП-421/2ИСИП-421.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-421\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED44A72-BF38-417E-9C28-F3CC215FF7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59752CB-E4A2-4A5B-B2D4-07015B5634C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>Акобян Арман</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>++++</t>
   </si>
 </sst>
 </file>
@@ -198,7 +201,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +211,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -254,6 +269,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -564,7 +584,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
+      <selection pane="bottomRight" activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -982,23 +1002,56 @@
       <c r="C11" s="4">
         <v>5</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6">
+        <v>5</v>
+      </c>
+      <c r="H11" s="6">
+        <v>5</v>
+      </c>
+      <c r="I11" s="6">
+        <v>5</v>
+      </c>
+      <c r="J11" s="6">
+        <v>5</v>
+      </c>
+      <c r="K11" s="6">
+        <v>5</v>
+      </c>
+      <c r="L11" s="6">
+        <v>5</v>
+      </c>
+      <c r="M11" s="6">
+        <v>5</v>
+      </c>
+      <c r="N11" s="6">
+        <v>5</v>
+      </c>
+      <c r="O11" s="6">
+        <v>5</v>
+      </c>
+      <c r="P11" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>5</v>
+      </c>
+      <c r="R11" s="6">
+        <v>5</v>
+      </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>65</v>
+      </c>
+      <c r="V11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1345,23 +1398,50 @@
       <c r="C18" s="4">
         <v>5</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="G18" s="6">
+        <v>5</v>
+      </c>
+      <c r="H18" s="6">
+        <v>5</v>
+      </c>
+      <c r="I18" s="6">
+        <v>5</v>
+      </c>
+      <c r="J18" s="6">
+        <v>5</v>
+      </c>
+      <c r="K18" s="6">
+        <v>5</v>
+      </c>
+      <c r="L18" s="6">
+        <v>5</v>
+      </c>
+      <c r="M18" s="6">
+        <v>5</v>
+      </c>
+      <c r="N18" s="6">
+        <v>5</v>
+      </c>
+      <c r="O18" s="6">
+        <v>5</v>
+      </c>
+      <c r="P18" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>5</v>
+      </c>
+      <c r="R18" s="6">
+        <v>5</v>
+      </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>65</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/2ИСИП-421/2ИСИП-421.xlsx
+++ b/2ИСИП-421/2ИСИП-421.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-421\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59752CB-E4A2-4A5B-B2D4-07015B5634C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E58CF9-89F5-4A97-A774-3B76B93E8597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,10 +581,10 @@
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W14" sqref="W14"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -739,6 +739,9 @@
       <c r="E6">
         <v>5</v>
       </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
       <c r="G6" s="2">
         <v>5</v>
       </c>
@@ -777,7 +780,7 @@
       <c r="T6" s="2"/>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s">
         <v>46</v>
@@ -796,6 +799,9 @@
       <c r="D7">
         <v>5</v>
       </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
       <c r="G7" s="2">
         <v>5</v>
       </c>
@@ -836,7 +842,7 @@
       <c r="T7" s="2"/>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s">
         <v>46</v>
@@ -1128,6 +1134,9 @@
       <c r="E13">
         <v>5</v>
       </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
       <c r="G13" s="2">
         <v>5</v>
       </c>
@@ -1166,7 +1175,7 @@
       <c r="T13" s="2"/>
       <c r="U13">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="V13" t="s">
         <v>46</v>
@@ -1217,6 +1226,9 @@
       <c r="E15">
         <v>5</v>
       </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
       <c r="G15" s="2">
         <v>5</v>
       </c>
@@ -1257,7 +1269,7 @@
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="V15" s="2" t="s">
         <v>46</v>
@@ -1279,6 +1291,9 @@
         <v>5</v>
       </c>
       <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
         <v>5</v>
       </c>
       <c r="G16" s="2">
@@ -1319,7 +1334,7 @@
       <c r="T16" s="2"/>
       <c r="U16">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="V16" t="s">
         <v>46</v>
@@ -1460,6 +1475,9 @@
       <c r="E19">
         <v>5</v>
       </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
       <c r="G19" s="2">
         <v>5</v>
       </c>
@@ -1502,7 +1520,7 @@
       <c r="T19" s="2"/>
       <c r="U19">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V19" t="s">
         <v>46</v>
@@ -1522,6 +1540,9 @@
         <v>5</v>
       </c>
       <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
         <v>5</v>
       </c>
       <c r="G20" s="2">
@@ -1562,7 +1583,7 @@
       <c r="T20" s="2"/>
       <c r="U20">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="V20" t="s">
         <v>46</v>
@@ -1584,6 +1605,9 @@
       <c r="E21">
         <v>5</v>
       </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
       <c r="G21" s="2">
         <v>5</v>
       </c>
@@ -1626,7 +1650,7 @@
       <c r="T21" s="2"/>
       <c r="U21">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V21" t="s">
         <v>46</v>
@@ -1648,6 +1672,9 @@
       <c r="E22">
         <v>5</v>
       </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
       <c r="G22" s="2">
         <v>5</v>
       </c>
@@ -1690,7 +1717,7 @@
       <c r="T22" s="2"/>
       <c r="U22">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V22" t="s">
         <v>46</v>
@@ -1710,6 +1737,9 @@
         <v>5</v>
       </c>
       <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
         <v>5</v>
       </c>
       <c r="G23" s="2">
@@ -1750,7 +1780,7 @@
       <c r="T23" s="2"/>
       <c r="U23">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="V23" t="s">
         <v>46</v>
@@ -1772,6 +1802,9 @@
       <c r="E24">
         <v>5</v>
       </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
       <c r="G24" s="2">
         <v>5</v>
       </c>
@@ -1814,7 +1847,7 @@
       <c r="T24" s="2"/>
       <c r="U24">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V24" t="s">
         <v>46</v>
@@ -1898,6 +1931,9 @@
       <c r="E26">
         <v>5</v>
       </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
       <c r="G26" s="2">
         <v>5</v>
       </c>
@@ -1940,7 +1976,7 @@
       <c r="T26" s="2"/>
       <c r="U26">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V26" t="s">
         <v>46</v>
@@ -2027,6 +2063,9 @@
       <c r="E28">
         <v>5</v>
       </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
       <c r="G28" s="2">
         <v>5</v>
       </c>
@@ -2069,7 +2108,7 @@
       <c r="T28" s="2"/>
       <c r="U28">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V28" t="s">
         <v>46</v>
@@ -2091,6 +2130,9 @@
       <c r="E29">
         <v>5</v>
       </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2">
         <v>5</v>
@@ -2129,7 +2171,7 @@
       <c r="T29" s="2"/>
       <c r="U29">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="V29" t="s">
         <v>46</v>
@@ -2143,23 +2185,43 @@
         <v>26</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="G30" s="2">
+        <v>5</v>
+      </c>
       <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="I30" s="2">
+        <v>5</v>
+      </c>
+      <c r="J30" s="2">
+        <v>5</v>
+      </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
+      <c r="M30" s="2">
+        <v>5</v>
+      </c>
+      <c r="N30" s="2">
+        <v>5</v>
+      </c>
+      <c r="O30" s="2">
+        <v>5</v>
+      </c>
+      <c r="P30" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>5</v>
+      </c>
+      <c r="R30" s="2">
+        <v>5</v>
+      </c>
+      <c r="S30" s="2">
+        <v>5</v>
+      </c>
       <c r="T30" s="2"/>
       <c r="U30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/2ИСИП-421/2ИСИП-421.xlsx
+++ b/2ИСИП-421/2ИСИП-421.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-421\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E58CF9-89F5-4A97-A774-3B76B93E8597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4145C7-F4D0-46B9-94C1-EF772AAF0348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>Акобян Арман</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>++++</t>
+  </si>
+  <si>
+    <t>А</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2234,17 +2237,39 @@
       <c r="C31" s="4">
         <v>5</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
+      <c r="G31" s="2">
+        <v>5</v>
+      </c>
+      <c r="H31" s="2">
+        <v>5</v>
+      </c>
+      <c r="I31" s="2">
+        <v>5</v>
+      </c>
+      <c r="J31" s="2">
+        <v>5</v>
+      </c>
+      <c r="K31" s="2">
+        <v>5</v>
+      </c>
+      <c r="L31" s="2">
+        <v>5</v>
+      </c>
+      <c r="M31" s="2">
+        <v>5</v>
+      </c>
+      <c r="N31" s="2">
+        <v>5</v>
+      </c>
+      <c r="O31" s="2">
+        <v>5</v>
+      </c>
+      <c r="P31" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>5</v>
+      </c>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2" t="s">
@@ -2252,9 +2277,11 @@
       </c>
       <c r="U31">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="V31" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>

--- a/2ИСИП-421/2ИСИП-421.xlsx
+++ b/2ИСИП-421/2ИСИП-421.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-421\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4145C7-F4D0-46B9-94C1-EF772AAF0348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD039469-3DAB-472F-8948-9DC18F731A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>Акобян Арман</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>А</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -584,10 +590,10 @@
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W25" sqref="W25"/>
+      <selection pane="bottomRight" activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -598,8 +604,8 @@
     <col min="17" max="21" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:24" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:25" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
@@ -653,7 +659,7 @@
       </c>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -670,7 +676,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -698,8 +704,14 @@
         <f>SUM(C4:S4)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W4">
+        <v>24</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -725,8 +737,14 @@
         <f t="shared" ref="U5:U31" si="0">SUM(C5:S5)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V5" t="s">
+        <v>50</v>
+      </c>
+      <c r="W5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -788,8 +806,11 @@
       <c r="V6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -850,8 +871,11 @@
       <c r="V7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -879,8 +903,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W8">
+        <v>18</v>
+      </c>
+      <c r="X8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -944,8 +974,11 @@
       <c r="V9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1000,8 +1033,11 @@
       <c r="V10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1062,8 +1098,11 @@
       <c r="W11" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1120,8 +1159,11 @@
       <c r="V12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1183,8 +1225,11 @@
       <c r="V13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1212,8 +1257,17 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" ht="18.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V14" t="s">
+        <v>49</v>
+      </c>
+      <c r="W14">
+        <v>10</v>
+      </c>
+      <c r="X14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="18.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1278,9 +1332,11 @@
         <v>46</v>
       </c>
       <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-    </row>
-    <row r="16" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1342,6 +1398,9 @@
       <c r="V16" t="s">
         <v>46</v>
       </c>
+      <c r="X16">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1405,6 +1464,9 @@
       <c r="V17" t="s">
         <v>46</v>
       </c>
+      <c r="X17">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1461,6 +1523,9 @@
       <c r="V18" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="X18">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -1527,6 +1592,9 @@
       </c>
       <c r="V19" t="s">
         <v>46</v>
+      </c>
+      <c r="X19">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1591,6 +1659,9 @@
       <c r="V20" t="s">
         <v>46</v>
       </c>
+      <c r="X20">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -1658,6 +1729,9 @@
       <c r="V21" t="s">
         <v>46</v>
       </c>
+      <c r="X21">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -1724,6 +1798,9 @@
       </c>
       <c r="V22" t="s">
         <v>46</v>
+      </c>
+      <c r="X22">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1788,6 +1865,9 @@
       <c r="V23" t="s">
         <v>46</v>
       </c>
+      <c r="X23">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -1855,6 +1935,9 @@
       <c r="V24" t="s">
         <v>46</v>
       </c>
+      <c r="X24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -1917,6 +2000,9 @@
       <c r="V25" t="s">
         <v>46</v>
       </c>
+      <c r="X25">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -1984,6 +2070,9 @@
       <c r="V26" t="s">
         <v>46</v>
       </c>
+      <c r="X26">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -2049,6 +2138,9 @@
       <c r="V27" t="s">
         <v>46</v>
       </c>
+      <c r="X27">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -2116,6 +2208,9 @@
       <c r="V28" t="s">
         <v>46</v>
       </c>
+      <c r="X28">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -2179,6 +2274,9 @@
       <c r="V29" t="s">
         <v>46</v>
       </c>
+      <c r="X29">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:27" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -2225,6 +2323,12 @@
       <c r="U30">
         <f t="shared" si="0"/>
         <v>50</v>
+      </c>
+      <c r="W30">
+        <v>26</v>
+      </c>
+      <c r="X30">
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2283,7 +2387,9 @@
         <v>48</v>
       </c>
       <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
+      <c r="X31" s="2">
+        <v>5</v>
+      </c>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>

--- a/2ИСИП-421/2ИСИП-421.xlsx
+++ b/2ИСИП-421/2ИСИП-421.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-421\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD039469-3DAB-472F-8948-9DC18F731A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3E11AD-CE0B-4C3C-9562-CDE53789C965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -590,10 +590,10 @@
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X23" sqref="X23"/>
+      <selection pane="bottomRight" activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -706,6 +706,9 @@
       </c>
       <c r="W4">
         <v>24</v>
+      </c>
+      <c r="X4">
+        <v>4</v>
       </c>
       <c r="Y4" t="s">
         <v>50</v>

--- a/2ИСИП-421/2ИСИП-421.xlsx
+++ b/2ИСИП-421/2ИСИП-421.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-421\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3E11AD-CE0B-4C3C-9562-CDE53789C965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A336A97-D1A1-45D4-AB58-6E1B62D82298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -593,7 +593,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y6" sqref="Y6"/>
+      <selection pane="bottomRight" activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/2ИСИП-421/2ИСИП-421.xlsx
+++ b/2ИСИП-421/2ИСИП-421.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-421\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A336A97-D1A1-45D4-AB58-6E1B62D82298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE99BD1-A8AA-417A-942E-DD90187B421E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -590,10 +590,10 @@
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X4" sqref="X4"/>
+      <selection pane="bottomRight" activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2417,6 +2417,18 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="U4:U31">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4:X31">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/2ИСИП-421/2ИСИП-421.xlsx
+++ b/2ИСИП-421/2ИСИП-421.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-421\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE99BD1-A8AA-417A-942E-DD90187B421E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E19D7B-75CE-4A72-A614-107AAF4EA8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -590,10 +590,10 @@
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X6" sqref="X6"/>
+      <selection pane="bottomRight" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -686,19 +686,54 @@
       <c r="C4" s="4">
         <v>5</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
       <c r="T4" s="2"/>
       <c r="U4">
         <f>SUM(C4:S4)</f>
@@ -721,20 +756,57 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
       <c r="T5" s="2"/>
       <c r="U5">
         <f t="shared" ref="U5:U31" si="0">SUM(C5:S5)</f>
@@ -799,8 +871,12 @@
       <c r="Q6" s="2">
         <v>5</v>
       </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
       <c r="T6" s="2"/>
       <c r="U6">
         <f t="shared" si="0"/>
@@ -826,6 +902,9 @@
       <c r="D7">
         <v>5</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
       <c r="F7">
         <v>5</v>
       </c>
@@ -865,7 +944,9 @@
       <c r="R7" s="2">
         <v>5</v>
       </c>
-      <c r="S7" s="2"/>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
       <c r="T7" s="2"/>
       <c r="U7">
         <f t="shared" si="0"/>
@@ -888,19 +969,54 @@
       <c r="C8" s="4">
         <v>5</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
       <c r="T8" s="2"/>
       <c r="U8">
         <f t="shared" si="0"/>
@@ -953,7 +1069,9 @@
       <c r="M9" s="2">
         <v>5</v>
       </c>
-      <c r="N9" s="2"/>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
       <c r="O9" s="2">
         <v>5</v>
       </c>
@@ -991,6 +1109,15 @@
       <c r="C10" s="4">
         <v>5</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
       <c r="G10" s="2">
         <v>5</v>
       </c>
@@ -1027,7 +1154,9 @@
       <c r="R10" s="2">
         <v>5</v>
       </c>
-      <c r="S10" s="2"/>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
       <c r="T10" s="2"/>
       <c r="U10">
         <f t="shared" si="0"/>
@@ -1050,9 +1179,15 @@
       <c r="C11" s="4">
         <v>5</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
       <c r="G11" s="6">
         <v>5</v>
       </c>
@@ -1089,7 +1224,9 @@
       <c r="R11" s="6">
         <v>5</v>
       </c>
-      <c r="S11" s="2"/>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
       <c r="T11" s="2"/>
       <c r="U11">
         <f t="shared" si="0"/>
@@ -1115,6 +1252,15 @@
       <c r="C12" s="4">
         <v>5</v>
       </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
       <c r="G12" s="2">
         <v>5</v>
       </c>
@@ -1218,8 +1364,12 @@
       <c r="Q13" s="2">
         <v>5</v>
       </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
       <c r="T13" s="2"/>
       <c r="U13">
         <f t="shared" si="0"/>
@@ -1242,19 +1392,54 @@
       <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
       <c r="T14" s="2"/>
       <c r="U14">
         <f t="shared" si="0"/>
@@ -1322,8 +1507,12 @@
       <c r="Q15" s="2">
         <v>5</v>
       </c>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
       <c r="T15" s="2" t="s">
         <v>42</v>
       </c>
@@ -1391,8 +1580,12 @@
       <c r="Q16" s="2">
         <v>5</v>
       </c>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
       <c r="T16" s="2"/>
       <c r="U16">
         <f t="shared" si="0"/>
@@ -1457,8 +1650,12 @@
       <c r="Q17" s="2">
         <v>5</v>
       </c>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
       <c r="T17" s="2"/>
       <c r="U17">
         <f t="shared" si="0"/>
@@ -1481,6 +1678,15 @@
       <c r="C18" s="4">
         <v>5</v>
       </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
       <c r="G18" s="6">
         <v>5</v>
       </c>
@@ -1517,7 +1723,9 @@
       <c r="R18" s="6">
         <v>5</v>
       </c>
-      <c r="S18" s="2"/>
+      <c r="S18" s="2">
+        <v>0</v>
+      </c>
       <c r="T18" s="2"/>
       <c r="U18">
         <f t="shared" si="0"/>
@@ -1652,8 +1860,12 @@
       <c r="Q20" s="2">
         <v>5</v>
       </c>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0</v>
+      </c>
       <c r="T20" s="2"/>
       <c r="U20">
         <f t="shared" si="0"/>
@@ -1858,8 +2070,12 @@
       <c r="Q23" s="2">
         <v>5</v>
       </c>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
+      <c r="R23" s="2">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0</v>
+      </c>
       <c r="T23" s="2"/>
       <c r="U23">
         <f t="shared" si="0"/>
@@ -1958,6 +2174,9 @@
       <c r="E25">
         <v>5</v>
       </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
       <c r="G25" s="2">
         <v>5</v>
       </c>
@@ -1985,7 +2204,9 @@
       <c r="O25" s="2">
         <v>5</v>
       </c>
-      <c r="P25" s="2"/>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
       <c r="Q25" s="2">
         <v>5</v>
       </c>
@@ -2132,7 +2353,9 @@
       <c r="R27" s="2">
         <v>5</v>
       </c>
-      <c r="S27" s="2"/>
+      <c r="S27" s="2">
+        <v>0</v>
+      </c>
       <c r="T27" s="2"/>
       <c r="U27">
         <f t="shared" si="0"/>
@@ -2234,7 +2457,9 @@
       <c r="F29">
         <v>5</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
       <c r="H29" s="2">
         <v>5</v>
       </c>
@@ -2265,7 +2490,9 @@
       <c r="Q29" s="2">
         <v>5</v>
       </c>
-      <c r="R29" s="2"/>
+      <c r="R29" s="2">
+        <v>0</v>
+      </c>
       <c r="S29" s="2">
         <v>5</v>
       </c>
@@ -2288,19 +2515,36 @@
       <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
       <c r="G30" s="2">
         <v>5</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
       <c r="I30" s="2">
         <v>5</v>
       </c>
       <c r="J30" s="2">
         <v>5</v>
       </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
       <c r="M30" s="2">
         <v>5</v>
       </c>
@@ -2334,7 +2578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" ht="22" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -2344,6 +2588,15 @@
       <c r="C31" s="4">
         <v>5</v>
       </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
       <c r="G31" s="2">
         <v>5</v>
       </c>
@@ -2377,14 +2630,18 @@
       <c r="Q31" s="2">
         <v>5</v>
       </c>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
+      <c r="R31" s="2">
+        <v>0</v>
+      </c>
+      <c r="S31" s="2">
+        <v>0</v>
+      </c>
       <c r="T31" s="2" t="s">
         <v>42</v>
       </c>
       <c r="U31">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="V31" s="2" t="s">
         <v>48</v>

--- a/2ИСИП-421/2ИСИП-421.xlsx
+++ b/2ИСИП-421/2ИСИП-421.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-421\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E19D7B-75CE-4A72-A614-107AAF4EA8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DDBA73-3366-4B04-9093-05AB5E2F2514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -283,6 +283,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -590,10 +593,10 @@
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="C4:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -683,10 +686,10 @@
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4">
-        <v>5</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="9">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
         <v>0</v>
       </c>
       <c r="E4">
@@ -756,57 +759,21 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0</v>
-      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5">
         <f t="shared" ref="U5:U31" si="0">SUM(C5:S5)</f>
@@ -826,10 +793,10 @@
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4">
-        <v>5</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="9">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
         <v>5</v>
       </c>
       <c r="E6">
@@ -896,10 +863,10 @@
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4">
-        <v>5</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="9">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
         <v>5</v>
       </c>
       <c r="E7">
@@ -966,10 +933,10 @@
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4">
-        <v>5</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="9">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7">
         <v>0</v>
       </c>
       <c r="E8">
@@ -1036,10 +1003,10 @@
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4">
-        <v>5</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7">
         <v>5</v>
       </c>
       <c r="E9">
@@ -1106,10 +1073,10 @@
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4">
-        <v>5</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="9">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
         <v>0</v>
       </c>
       <c r="E10">
@@ -1176,7 +1143,7 @@
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="9">
         <v>5</v>
       </c>
       <c r="D11" s="7">
@@ -1249,10 +1216,10 @@
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4">
-        <v>5</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="9">
+        <v>5</v>
+      </c>
+      <c r="D12" s="7">
         <v>0</v>
       </c>
       <c r="E12">
@@ -1319,10 +1286,10 @@
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4">
-        <v>5</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="9">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
         <v>5</v>
       </c>
       <c r="E13">
@@ -1389,10 +1356,10 @@
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="4">
-        <v>5</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="9">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7">
         <v>0</v>
       </c>
       <c r="E14">
@@ -1462,10 +1429,10 @@
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2">
-        <v>5</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="9">
+        <v>5</v>
+      </c>
+      <c r="D15" s="7">
         <v>5</v>
       </c>
       <c r="E15">
@@ -1535,10 +1502,10 @@
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="4">
-        <v>5</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="9">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
         <v>5</v>
       </c>
       <c r="E16">
@@ -1605,10 +1572,10 @@
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="4">
-        <v>5</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="9">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7">
         <v>5</v>
       </c>
       <c r="E17">
@@ -1675,10 +1642,10 @@
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4">
-        <v>5</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="9">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7">
         <v>0</v>
       </c>
       <c r="E18">
@@ -1745,10 +1712,10 @@
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="4">
-        <v>5</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="9">
+        <v>5</v>
+      </c>
+      <c r="D19" s="7">
         <v>5</v>
       </c>
       <c r="E19">
@@ -1815,10 +1782,10 @@
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="4">
-        <v>5</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="9">
+        <v>5</v>
+      </c>
+      <c r="D20" s="7">
         <v>5</v>
       </c>
       <c r="E20">
@@ -1885,10 +1852,10 @@
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="4">
-        <v>5</v>
-      </c>
-      <c r="D21">
+      <c r="C21" s="9">
+        <v>5</v>
+      </c>
+      <c r="D21" s="7">
         <v>5</v>
       </c>
       <c r="E21">
@@ -1955,10 +1922,10 @@
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="4">
-        <v>5</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="9">
+        <v>5</v>
+      </c>
+      <c r="D22" s="7">
         <v>5</v>
       </c>
       <c r="E22">
@@ -2025,10 +1992,10 @@
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="4">
-        <v>5</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="9">
+        <v>5</v>
+      </c>
+      <c r="D23" s="7">
         <v>5</v>
       </c>
       <c r="E23">
@@ -2095,10 +2062,10 @@
       <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="4">
-        <v>5</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="9">
+        <v>5</v>
+      </c>
+      <c r="D24" s="7">
         <v>5</v>
       </c>
       <c r="E24">
@@ -2165,10 +2132,10 @@
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="4">
-        <v>5</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="9">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7">
         <v>5</v>
       </c>
       <c r="E25">
@@ -2235,10 +2202,10 @@
       <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="4">
-        <v>5</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="9">
+        <v>5</v>
+      </c>
+      <c r="D26" s="7">
         <v>5</v>
       </c>
       <c r="E26">
@@ -2305,10 +2272,10 @@
       <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="4">
-        <v>5</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="9">
+        <v>5</v>
+      </c>
+      <c r="D27" s="7">
         <v>5</v>
       </c>
       <c r="E27">
@@ -2375,10 +2342,10 @@
       <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="4">
-        <v>5</v>
-      </c>
-      <c r="D28">
+      <c r="C28" s="9">
+        <v>5</v>
+      </c>
+      <c r="D28" s="7">
         <v>5</v>
       </c>
       <c r="E28">
@@ -2445,10 +2412,10 @@
       <c r="B29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="4">
-        <v>5</v>
-      </c>
-      <c r="D29">
+      <c r="C29" s="9">
+        <v>5</v>
+      </c>
+      <c r="D29" s="7">
         <v>5</v>
       </c>
       <c r="E29">
@@ -2515,10 +2482,10 @@
       <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30">
+      <c r="C30" s="9">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
         <v>0</v>
       </c>
       <c r="E30">
@@ -2585,10 +2552,10 @@
       <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="4">
-        <v>5</v>
-      </c>
-      <c r="D31">
+      <c r="C31" s="9">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7">
         <v>5</v>
       </c>
       <c r="E31">

--- a/2ИСИП-421/2ИСИП-421.xlsx
+++ b/2ИСИП-421/2ИСИП-421.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-421\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DDBA73-3366-4B04-9093-05AB5E2F2514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15CF12C-D073-4F26-8BB0-BEC4049D1463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,7 +210,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,18 +220,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -278,14 +266,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -593,10 +574,10 @@
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="C4:D31"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4:S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -686,52 +667,52 @@
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9">
-        <v>5</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
         <v>0</v>
       </c>
       <c r="S4" s="2">
@@ -759,20 +740,22 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5">
@@ -793,52 +776,52 @@
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2">
-        <v>5</v>
-      </c>
-      <c r="J6" s="2">
-        <v>5</v>
-      </c>
-      <c r="K6" s="2">
-        <v>5</v>
-      </c>
-      <c r="L6" s="2">
-        <v>5</v>
-      </c>
-      <c r="M6" s="2">
-        <v>5</v>
-      </c>
-      <c r="N6" s="2">
-        <v>5</v>
-      </c>
-      <c r="O6" s="2">
-        <v>5</v>
-      </c>
-      <c r="P6" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>5</v>
-      </c>
-      <c r="R6" s="2">
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4">
+        <v>5</v>
+      </c>
+      <c r="I6" s="4">
+        <v>5</v>
+      </c>
+      <c r="J6" s="4">
+        <v>5</v>
+      </c>
+      <c r="K6" s="4">
+        <v>5</v>
+      </c>
+      <c r="L6" s="4">
+        <v>5</v>
+      </c>
+      <c r="M6" s="4">
+        <v>5</v>
+      </c>
+      <c r="N6" s="4">
+        <v>5</v>
+      </c>
+      <c r="O6" s="4">
+        <v>5</v>
+      </c>
+      <c r="P6" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>5</v>
+      </c>
+      <c r="R6" s="4">
         <v>0</v>
       </c>
       <c r="S6" s="2">
@@ -863,52 +846,52 @@
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="9">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2">
-        <v>5</v>
-      </c>
-      <c r="J7" s="2">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2">
-        <v>5</v>
-      </c>
-      <c r="L7" s="2">
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4">
+        <v>5</v>
+      </c>
+      <c r="I7" s="4">
+        <v>5</v>
+      </c>
+      <c r="J7" s="4">
+        <v>5</v>
+      </c>
+      <c r="K7" s="4">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4">
         <v>6</v>
       </c>
       <c r="M7" s="4">
         <v>5</v>
       </c>
-      <c r="N7" s="2">
-        <v>5</v>
-      </c>
-      <c r="O7" s="2">
-        <v>5</v>
-      </c>
-      <c r="P7" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>5</v>
-      </c>
-      <c r="R7" s="2">
+      <c r="N7" s="4">
+        <v>5</v>
+      </c>
+      <c r="O7" s="4">
+        <v>5</v>
+      </c>
+      <c r="P7" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>5</v>
+      </c>
+      <c r="R7" s="4">
         <v>5</v>
       </c>
       <c r="S7" s="2">
@@ -933,52 +916,52 @@
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9">
-        <v>5</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2">
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
         <v>0</v>
       </c>
       <c r="S8" s="2">
@@ -1003,52 +986,52 @@
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9">
-        <v>5</v>
-      </c>
-      <c r="D9" s="7">
-        <v>5</v>
-      </c>
-      <c r="E9">
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
         <v>5</v>
       </c>
       <c r="F9" s="5">
         <v>5</v>
       </c>
-      <c r="G9" s="2">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2">
-        <v>5</v>
-      </c>
-      <c r="J9" s="2">
-        <v>5</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="G9" s="4">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4">
+        <v>5</v>
+      </c>
+      <c r="I9" s="4">
+        <v>5</v>
+      </c>
+      <c r="J9" s="4">
+        <v>5</v>
+      </c>
+      <c r="K9" s="4">
         <v>5</v>
       </c>
       <c r="L9" s="4">
         <v>5</v>
       </c>
-      <c r="M9" s="2">
-        <v>5</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>5</v>
-      </c>
-      <c r="P9" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>5</v>
-      </c>
-      <c r="R9" s="2">
+      <c r="M9" s="4">
+        <v>5</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>5</v>
+      </c>
+      <c r="P9" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>5</v>
+      </c>
+      <c r="R9" s="4">
         <v>5</v>
       </c>
       <c r="S9" s="2">
@@ -1073,52 +1056,52 @@
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="9">
-        <v>5</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2">
-        <v>5</v>
-      </c>
-      <c r="J10" s="2">
-        <v>5</v>
-      </c>
-      <c r="K10" s="2">
-        <v>5</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="C10" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5</v>
+      </c>
+      <c r="I10" s="4">
+        <v>5</v>
+      </c>
+      <c r="J10" s="4">
+        <v>5</v>
+      </c>
+      <c r="K10" s="4">
+        <v>5</v>
+      </c>
+      <c r="L10" s="4">
         <v>5</v>
       </c>
       <c r="M10" s="4">
         <v>5</v>
       </c>
-      <c r="N10" s="2">
-        <v>5</v>
-      </c>
-      <c r="O10" s="2">
-        <v>5</v>
-      </c>
-      <c r="P10" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>5</v>
-      </c>
-      <c r="R10" s="2">
+      <c r="N10" s="4">
+        <v>5</v>
+      </c>
+      <c r="O10" s="4">
+        <v>5</v>
+      </c>
+      <c r="P10" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>5</v>
+      </c>
+      <c r="R10" s="4">
         <v>5</v>
       </c>
       <c r="S10" s="2">
@@ -1143,52 +1126,52 @@
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9">
-        <v>5</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>5</v>
-      </c>
-      <c r="H11" s="6">
-        <v>5</v>
-      </c>
-      <c r="I11" s="6">
-        <v>5</v>
-      </c>
-      <c r="J11" s="6">
-        <v>5</v>
-      </c>
-      <c r="K11" s="6">
-        <v>5</v>
-      </c>
-      <c r="L11" s="6">
-        <v>5</v>
-      </c>
-      <c r="M11" s="6">
-        <v>5</v>
-      </c>
-      <c r="N11" s="6">
-        <v>5</v>
-      </c>
-      <c r="O11" s="6">
-        <v>5</v>
-      </c>
-      <c r="P11" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>5</v>
-      </c>
-      <c r="R11" s="6">
+      <c r="C11" s="4">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4">
+        <v>5</v>
+      </c>
+      <c r="I11" s="4">
+        <v>5</v>
+      </c>
+      <c r="J11" s="4">
+        <v>5</v>
+      </c>
+      <c r="K11" s="4">
+        <v>5</v>
+      </c>
+      <c r="L11" s="4">
+        <v>5</v>
+      </c>
+      <c r="M11" s="4">
+        <v>5</v>
+      </c>
+      <c r="N11" s="4">
+        <v>5</v>
+      </c>
+      <c r="O11" s="4">
+        <v>5</v>
+      </c>
+      <c r="P11" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>5</v>
+      </c>
+      <c r="R11" s="4">
         <v>5</v>
       </c>
       <c r="S11" s="2">
@@ -1202,7 +1185,7 @@
       <c r="V11" t="s">
         <v>46</v>
       </c>
-      <c r="W11" s="8" t="s">
+      <c r="W11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="X11">
@@ -1216,52 +1199,52 @@
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="9">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2">
-        <v>5</v>
-      </c>
-      <c r="J12" s="2">
-        <v>5</v>
-      </c>
-      <c r="K12" s="2">
-        <v>5</v>
-      </c>
-      <c r="L12" s="2">
+      <c r="C12" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4">
+        <v>5</v>
+      </c>
+      <c r="I12" s="4">
+        <v>5</v>
+      </c>
+      <c r="J12" s="4">
+        <v>5</v>
+      </c>
+      <c r="K12" s="4">
+        <v>5</v>
+      </c>
+      <c r="L12" s="4">
         <v>5</v>
       </c>
       <c r="M12" s="4">
         <v>5</v>
       </c>
-      <c r="N12" s="2">
-        <v>5</v>
-      </c>
-      <c r="O12" s="2">
-        <v>5</v>
-      </c>
-      <c r="P12" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>5</v>
-      </c>
-      <c r="R12" s="2">
+      <c r="N12" s="4">
+        <v>5</v>
+      </c>
+      <c r="O12" s="4">
+        <v>5</v>
+      </c>
+      <c r="P12" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>5</v>
+      </c>
+      <c r="R12" s="4">
         <v>5</v>
       </c>
       <c r="S12" s="2">
@@ -1286,52 +1269,52 @@
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="9">
-        <v>5</v>
-      </c>
-      <c r="D13" s="7">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13" s="2">
-        <v>5</v>
-      </c>
-      <c r="H13" s="2">
-        <v>5</v>
-      </c>
-      <c r="I13" s="2">
-        <v>5</v>
-      </c>
-      <c r="J13" s="2">
-        <v>5</v>
-      </c>
-      <c r="K13" s="2">
-        <v>5</v>
-      </c>
-      <c r="L13" s="2">
-        <v>5</v>
-      </c>
-      <c r="M13" s="2">
-        <v>5</v>
-      </c>
-      <c r="N13" s="2">
-        <v>5</v>
-      </c>
-      <c r="O13" s="2">
-        <v>5</v>
-      </c>
-      <c r="P13" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>5</v>
-      </c>
-      <c r="R13" s="2">
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5">
+        <v>5</v>
+      </c>
+      <c r="E13" s="5">
+        <v>5</v>
+      </c>
+      <c r="F13" s="5">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4">
+        <v>5</v>
+      </c>
+      <c r="J13" s="4">
+        <v>5</v>
+      </c>
+      <c r="K13" s="4">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4">
+        <v>5</v>
+      </c>
+      <c r="M13" s="4">
+        <v>5</v>
+      </c>
+      <c r="N13" s="4">
+        <v>5</v>
+      </c>
+      <c r="O13" s="4">
+        <v>5</v>
+      </c>
+      <c r="P13" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>5</v>
+      </c>
+      <c r="R13" s="4">
         <v>0</v>
       </c>
       <c r="S13" s="2">
@@ -1356,52 +1339,52 @@
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="9">
-        <v>5</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2">
+      <c r="C14" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
         <v>0</v>
       </c>
       <c r="S14" s="2">
@@ -1429,52 +1412,52 @@
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="9">
-        <v>5</v>
-      </c>
-      <c r="D15" s="7">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15" s="2">
-        <v>5</v>
-      </c>
-      <c r="H15" s="2">
-        <v>5</v>
-      </c>
-      <c r="I15" s="2">
-        <v>5</v>
-      </c>
-      <c r="J15" s="2">
-        <v>5</v>
-      </c>
-      <c r="K15" s="2">
-        <v>5</v>
-      </c>
-      <c r="L15" s="2">
-        <v>5</v>
-      </c>
-      <c r="M15" s="2">
-        <v>5</v>
-      </c>
-      <c r="N15" s="2">
-        <v>5</v>
-      </c>
-      <c r="O15" s="2">
-        <v>5</v>
-      </c>
-      <c r="P15" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>5</v>
-      </c>
-      <c r="R15" s="2">
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5">
+        <v>5</v>
+      </c>
+      <c r="E15" s="5">
+        <v>5</v>
+      </c>
+      <c r="F15" s="5">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4">
+        <v>5</v>
+      </c>
+      <c r="I15" s="4">
+        <v>5</v>
+      </c>
+      <c r="J15" s="4">
+        <v>5</v>
+      </c>
+      <c r="K15" s="4">
+        <v>5</v>
+      </c>
+      <c r="L15" s="4">
+        <v>5</v>
+      </c>
+      <c r="M15" s="4">
+        <v>5</v>
+      </c>
+      <c r="N15" s="4">
+        <v>5</v>
+      </c>
+      <c r="O15" s="4">
+        <v>5</v>
+      </c>
+      <c r="P15" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>5</v>
+      </c>
+      <c r="R15" s="4">
         <v>0</v>
       </c>
       <c r="S15" s="2">
@@ -1502,52 +1485,52 @@
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="9">
-        <v>5</v>
-      </c>
-      <c r="D16" s="7">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16" s="2">
-        <v>5</v>
-      </c>
-      <c r="H16" s="2">
-        <v>5</v>
-      </c>
-      <c r="I16" s="2">
-        <v>5</v>
-      </c>
-      <c r="J16" s="2">
-        <v>5</v>
-      </c>
-      <c r="K16" s="2">
-        <v>5</v>
-      </c>
-      <c r="L16" s="2">
-        <v>5</v>
-      </c>
-      <c r="M16" s="2">
-        <v>5</v>
-      </c>
-      <c r="N16" s="2">
-        <v>5</v>
-      </c>
-      <c r="O16" s="2">
-        <v>5</v>
-      </c>
-      <c r="P16" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>5</v>
-      </c>
-      <c r="R16" s="2">
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5">
+        <v>5</v>
+      </c>
+      <c r="E16" s="5">
+        <v>5</v>
+      </c>
+      <c r="F16" s="5">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4">
+        <v>5</v>
+      </c>
+      <c r="I16" s="4">
+        <v>5</v>
+      </c>
+      <c r="J16" s="4">
+        <v>5</v>
+      </c>
+      <c r="K16" s="4">
+        <v>5</v>
+      </c>
+      <c r="L16" s="4">
+        <v>5</v>
+      </c>
+      <c r="M16" s="4">
+        <v>5</v>
+      </c>
+      <c r="N16" s="4">
+        <v>5</v>
+      </c>
+      <c r="O16" s="4">
+        <v>5</v>
+      </c>
+      <c r="P16" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>5</v>
+      </c>
+      <c r="R16" s="4">
         <v>0</v>
       </c>
       <c r="S16" s="2">
@@ -1572,52 +1555,52 @@
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="9">
-        <v>5</v>
-      </c>
-      <c r="D17" s="7">
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17" s="2">
-        <v>5</v>
-      </c>
-      <c r="H17" s="2">
-        <v>5</v>
-      </c>
-      <c r="I17" s="2">
-        <v>5</v>
-      </c>
-      <c r="J17" s="2">
-        <v>5</v>
-      </c>
-      <c r="K17" s="2">
-        <v>5</v>
-      </c>
-      <c r="L17" s="2">
-        <v>5</v>
-      </c>
-      <c r="M17" s="2">
-        <v>5</v>
-      </c>
-      <c r="N17" s="2">
-        <v>5</v>
-      </c>
-      <c r="O17" s="2">
-        <v>5</v>
-      </c>
-      <c r="P17" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>5</v>
-      </c>
-      <c r="R17" s="2">
+      <c r="C17" s="4">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5">
+        <v>5</v>
+      </c>
+      <c r="E17" s="5">
+        <v>5</v>
+      </c>
+      <c r="F17" s="5">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4">
+        <v>5</v>
+      </c>
+      <c r="H17" s="4">
+        <v>5</v>
+      </c>
+      <c r="I17" s="4">
+        <v>5</v>
+      </c>
+      <c r="J17" s="4">
+        <v>5</v>
+      </c>
+      <c r="K17" s="4">
+        <v>5</v>
+      </c>
+      <c r="L17" s="4">
+        <v>5</v>
+      </c>
+      <c r="M17" s="4">
+        <v>5</v>
+      </c>
+      <c r="N17" s="4">
+        <v>5</v>
+      </c>
+      <c r="O17" s="4">
+        <v>5</v>
+      </c>
+      <c r="P17" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>5</v>
+      </c>
+      <c r="R17" s="4">
         <v>0</v>
       </c>
       <c r="S17" s="2">
@@ -1642,52 +1625,52 @@
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="9">
-        <v>5</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6">
-        <v>5</v>
-      </c>
-      <c r="H18" s="6">
-        <v>5</v>
-      </c>
-      <c r="I18" s="6">
-        <v>5</v>
-      </c>
-      <c r="J18" s="6">
-        <v>5</v>
-      </c>
-      <c r="K18" s="6">
-        <v>5</v>
-      </c>
-      <c r="L18" s="6">
-        <v>5</v>
-      </c>
-      <c r="M18" s="6">
-        <v>5</v>
-      </c>
-      <c r="N18" s="6">
-        <v>5</v>
-      </c>
-      <c r="O18" s="6">
-        <v>5</v>
-      </c>
-      <c r="P18" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>5</v>
-      </c>
-      <c r="R18" s="6">
+      <c r="C18" s="4">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>5</v>
+      </c>
+      <c r="H18" s="4">
+        <v>5</v>
+      </c>
+      <c r="I18" s="4">
+        <v>5</v>
+      </c>
+      <c r="J18" s="4">
+        <v>5</v>
+      </c>
+      <c r="K18" s="4">
+        <v>5</v>
+      </c>
+      <c r="L18" s="4">
+        <v>5</v>
+      </c>
+      <c r="M18" s="4">
+        <v>5</v>
+      </c>
+      <c r="N18" s="4">
+        <v>5</v>
+      </c>
+      <c r="O18" s="4">
+        <v>5</v>
+      </c>
+      <c r="P18" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>5</v>
+      </c>
+      <c r="R18" s="4">
         <v>5</v>
       </c>
       <c r="S18" s="2">
@@ -1712,52 +1695,52 @@
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="9">
-        <v>5</v>
-      </c>
-      <c r="D19" s="7">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-      <c r="G19" s="2">
-        <v>5</v>
-      </c>
-      <c r="H19" s="2">
-        <v>5</v>
-      </c>
-      <c r="I19" s="2">
-        <v>5</v>
-      </c>
-      <c r="J19" s="2">
-        <v>5</v>
-      </c>
-      <c r="K19" s="2">
-        <v>5</v>
-      </c>
-      <c r="L19" s="2">
-        <v>5</v>
-      </c>
-      <c r="M19" s="2">
-        <v>5</v>
-      </c>
-      <c r="N19" s="2">
-        <v>5</v>
-      </c>
-      <c r="O19" s="2">
-        <v>5</v>
-      </c>
-      <c r="P19" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>5</v>
-      </c>
-      <c r="R19" s="2">
+      <c r="C19" s="4">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5">
+        <v>5</v>
+      </c>
+      <c r="E19" s="5">
+        <v>5</v>
+      </c>
+      <c r="F19" s="5">
+        <v>5</v>
+      </c>
+      <c r="G19" s="4">
+        <v>5</v>
+      </c>
+      <c r="H19" s="4">
+        <v>5</v>
+      </c>
+      <c r="I19" s="4">
+        <v>5</v>
+      </c>
+      <c r="J19" s="4">
+        <v>5</v>
+      </c>
+      <c r="K19" s="4">
+        <v>5</v>
+      </c>
+      <c r="L19" s="4">
+        <v>5</v>
+      </c>
+      <c r="M19" s="4">
+        <v>5</v>
+      </c>
+      <c r="N19" s="4">
+        <v>5</v>
+      </c>
+      <c r="O19" s="4">
+        <v>5</v>
+      </c>
+      <c r="P19" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>5</v>
+      </c>
+      <c r="R19" s="4">
         <v>5</v>
       </c>
       <c r="S19" s="2">
@@ -1782,52 +1765,52 @@
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="9">
-        <v>5</v>
-      </c>
-      <c r="D20" s="7">
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-      <c r="G20" s="2">
-        <v>5</v>
-      </c>
-      <c r="H20" s="2">
-        <v>5</v>
-      </c>
-      <c r="I20" s="2">
-        <v>5</v>
-      </c>
-      <c r="J20" s="2">
-        <v>5</v>
-      </c>
-      <c r="K20" s="2">
-        <v>5</v>
-      </c>
-      <c r="L20" s="2">
+      <c r="C20" s="4">
+        <v>5</v>
+      </c>
+      <c r="D20" s="5">
+        <v>5</v>
+      </c>
+      <c r="E20" s="5">
+        <v>5</v>
+      </c>
+      <c r="F20" s="5">
+        <v>5</v>
+      </c>
+      <c r="G20" s="4">
+        <v>5</v>
+      </c>
+      <c r="H20" s="4">
+        <v>5</v>
+      </c>
+      <c r="I20" s="4">
+        <v>5</v>
+      </c>
+      <c r="J20" s="4">
+        <v>5</v>
+      </c>
+      <c r="K20" s="4">
+        <v>5</v>
+      </c>
+      <c r="L20" s="4">
         <v>5</v>
       </c>
       <c r="M20" s="4">
         <v>5</v>
       </c>
-      <c r="N20" s="2">
-        <v>5</v>
-      </c>
-      <c r="O20" s="2">
-        <v>5</v>
-      </c>
-      <c r="P20" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>5</v>
-      </c>
-      <c r="R20" s="2">
+      <c r="N20" s="4">
+        <v>5</v>
+      </c>
+      <c r="O20" s="4">
+        <v>5</v>
+      </c>
+      <c r="P20" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>5</v>
+      </c>
+      <c r="R20" s="4">
         <v>0</v>
       </c>
       <c r="S20" s="2">
@@ -1852,52 +1835,52 @@
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="9">
-        <v>5</v>
-      </c>
-      <c r="D21" s="7">
-        <v>5</v>
-      </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-      <c r="F21">
-        <v>5</v>
-      </c>
-      <c r="G21" s="2">
-        <v>5</v>
-      </c>
-      <c r="H21" s="2">
-        <v>5</v>
-      </c>
-      <c r="I21" s="2">
-        <v>5</v>
-      </c>
-      <c r="J21" s="2">
-        <v>5</v>
-      </c>
-      <c r="K21" s="2">
-        <v>5</v>
-      </c>
-      <c r="L21" s="2">
-        <v>5</v>
-      </c>
-      <c r="M21" s="2">
-        <v>5</v>
-      </c>
-      <c r="N21" s="2">
-        <v>5</v>
-      </c>
-      <c r="O21" s="2">
-        <v>5</v>
-      </c>
-      <c r="P21" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>5</v>
-      </c>
-      <c r="R21" s="2">
+      <c r="C21" s="4">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5">
+        <v>5</v>
+      </c>
+      <c r="E21" s="5">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4">
+        <v>5</v>
+      </c>
+      <c r="H21" s="4">
+        <v>5</v>
+      </c>
+      <c r="I21" s="4">
+        <v>5</v>
+      </c>
+      <c r="J21" s="4">
+        <v>5</v>
+      </c>
+      <c r="K21" s="4">
+        <v>5</v>
+      </c>
+      <c r="L21" s="4">
+        <v>5</v>
+      </c>
+      <c r="M21" s="4">
+        <v>5</v>
+      </c>
+      <c r="N21" s="4">
+        <v>5</v>
+      </c>
+      <c r="O21" s="4">
+        <v>5</v>
+      </c>
+      <c r="P21" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>5</v>
+      </c>
+      <c r="R21" s="4">
         <v>5</v>
       </c>
       <c r="S21" s="2">
@@ -1922,52 +1905,52 @@
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="9">
-        <v>5</v>
-      </c>
-      <c r="D22" s="7">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-      <c r="G22" s="2">
-        <v>5</v>
-      </c>
-      <c r="H22" s="2">
-        <v>5</v>
-      </c>
-      <c r="I22" s="2">
-        <v>5</v>
-      </c>
-      <c r="J22" s="2">
-        <v>5</v>
-      </c>
-      <c r="K22" s="2">
-        <v>5</v>
-      </c>
-      <c r="L22" s="2">
-        <v>5</v>
-      </c>
-      <c r="M22" s="2">
-        <v>5</v>
-      </c>
-      <c r="N22" s="2">
-        <v>5</v>
-      </c>
-      <c r="O22" s="2">
-        <v>5</v>
-      </c>
-      <c r="P22" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>5</v>
-      </c>
-      <c r="R22" s="2">
+      <c r="C22" s="4">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5</v>
+      </c>
+      <c r="E22" s="5">
+        <v>5</v>
+      </c>
+      <c r="F22" s="5">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4">
+        <v>5</v>
+      </c>
+      <c r="H22" s="4">
+        <v>5</v>
+      </c>
+      <c r="I22" s="4">
+        <v>5</v>
+      </c>
+      <c r="J22" s="4">
+        <v>5</v>
+      </c>
+      <c r="K22" s="4">
+        <v>5</v>
+      </c>
+      <c r="L22" s="4">
+        <v>5</v>
+      </c>
+      <c r="M22" s="4">
+        <v>5</v>
+      </c>
+      <c r="N22" s="4">
+        <v>5</v>
+      </c>
+      <c r="O22" s="4">
+        <v>5</v>
+      </c>
+      <c r="P22" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>5</v>
+      </c>
+      <c r="R22" s="4">
         <v>5</v>
       </c>
       <c r="S22" s="2">
@@ -1992,52 +1975,52 @@
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="9">
-        <v>5</v>
-      </c>
-      <c r="D23" s="7">
-        <v>5</v>
-      </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
-      <c r="F23">
-        <v>5</v>
-      </c>
-      <c r="G23" s="2">
-        <v>5</v>
-      </c>
-      <c r="H23" s="2">
-        <v>5</v>
-      </c>
-      <c r="I23" s="2">
-        <v>5</v>
-      </c>
-      <c r="J23" s="2">
-        <v>5</v>
-      </c>
-      <c r="K23" s="2">
-        <v>5</v>
-      </c>
-      <c r="L23" s="2">
-        <v>5</v>
-      </c>
-      <c r="M23" s="2">
-        <v>5</v>
-      </c>
-      <c r="N23" s="2">
-        <v>5</v>
-      </c>
-      <c r="O23" s="2">
-        <v>5</v>
-      </c>
-      <c r="P23" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>5</v>
-      </c>
-      <c r="R23" s="2">
+      <c r="C23" s="4">
+        <v>5</v>
+      </c>
+      <c r="D23" s="5">
+        <v>5</v>
+      </c>
+      <c r="E23" s="5">
+        <v>5</v>
+      </c>
+      <c r="F23" s="5">
+        <v>5</v>
+      </c>
+      <c r="G23" s="4">
+        <v>5</v>
+      </c>
+      <c r="H23" s="4">
+        <v>5</v>
+      </c>
+      <c r="I23" s="4">
+        <v>5</v>
+      </c>
+      <c r="J23" s="4">
+        <v>5</v>
+      </c>
+      <c r="K23" s="4">
+        <v>5</v>
+      </c>
+      <c r="L23" s="4">
+        <v>5</v>
+      </c>
+      <c r="M23" s="4">
+        <v>5</v>
+      </c>
+      <c r="N23" s="4">
+        <v>5</v>
+      </c>
+      <c r="O23" s="4">
+        <v>5</v>
+      </c>
+      <c r="P23" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>5</v>
+      </c>
+      <c r="R23" s="4">
         <v>0</v>
       </c>
       <c r="S23" s="2">
@@ -2062,52 +2045,52 @@
       <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="9">
-        <v>5</v>
-      </c>
-      <c r="D24" s="7">
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <v>5</v>
-      </c>
-      <c r="F24">
-        <v>5</v>
-      </c>
-      <c r="G24" s="2">
-        <v>5</v>
-      </c>
-      <c r="H24" s="2">
-        <v>5</v>
-      </c>
-      <c r="I24" s="2">
-        <v>5</v>
-      </c>
-      <c r="J24" s="2">
-        <v>5</v>
-      </c>
-      <c r="K24" s="2">
-        <v>5</v>
-      </c>
-      <c r="L24" s="2">
+      <c r="C24" s="4">
+        <v>5</v>
+      </c>
+      <c r="D24" s="5">
+        <v>5</v>
+      </c>
+      <c r="E24" s="5">
+        <v>5</v>
+      </c>
+      <c r="F24" s="5">
+        <v>5</v>
+      </c>
+      <c r="G24" s="4">
+        <v>5</v>
+      </c>
+      <c r="H24" s="4">
+        <v>5</v>
+      </c>
+      <c r="I24" s="4">
+        <v>5</v>
+      </c>
+      <c r="J24" s="4">
+        <v>5</v>
+      </c>
+      <c r="K24" s="4">
+        <v>5</v>
+      </c>
+      <c r="L24" s="4">
         <v>5</v>
       </c>
       <c r="M24" s="4">
         <v>5</v>
       </c>
-      <c r="N24" s="2">
-        <v>5</v>
-      </c>
-      <c r="O24" s="2">
-        <v>5</v>
-      </c>
-      <c r="P24" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>5</v>
-      </c>
-      <c r="R24" s="2">
+      <c r="N24" s="4">
+        <v>5</v>
+      </c>
+      <c r="O24" s="4">
+        <v>5</v>
+      </c>
+      <c r="P24" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>5</v>
+      </c>
+      <c r="R24" s="4">
         <v>5</v>
       </c>
       <c r="S24" s="2">
@@ -2132,52 +2115,52 @@
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="9">
-        <v>5</v>
-      </c>
-      <c r="D25" s="7">
-        <v>5</v>
-      </c>
-      <c r="E25">
-        <v>5</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>5</v>
-      </c>
-      <c r="H25" s="2">
-        <v>5</v>
-      </c>
-      <c r="I25" s="2">
-        <v>5</v>
-      </c>
-      <c r="J25" s="2">
-        <v>5</v>
-      </c>
-      <c r="K25" s="2">
-        <v>5</v>
-      </c>
-      <c r="L25" s="2">
+      <c r="C25" s="4">
+        <v>5</v>
+      </c>
+      <c r="D25" s="5">
+        <v>5</v>
+      </c>
+      <c r="E25" s="5">
+        <v>5</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>5</v>
+      </c>
+      <c r="H25" s="4">
+        <v>5</v>
+      </c>
+      <c r="I25" s="4">
+        <v>5</v>
+      </c>
+      <c r="J25" s="4">
+        <v>5</v>
+      </c>
+      <c r="K25" s="4">
+        <v>5</v>
+      </c>
+      <c r="L25" s="4">
         <v>5</v>
       </c>
       <c r="M25" s="4">
         <v>5</v>
       </c>
-      <c r="N25" s="2">
-        <v>5</v>
-      </c>
-      <c r="O25" s="2">
-        <v>5</v>
-      </c>
-      <c r="P25" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>5</v>
-      </c>
-      <c r="R25" s="2">
+      <c r="N25" s="4">
+        <v>5</v>
+      </c>
+      <c r="O25" s="4">
+        <v>5</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>5</v>
+      </c>
+      <c r="R25" s="4">
         <v>5</v>
       </c>
       <c r="S25" s="2">
@@ -2202,52 +2185,52 @@
       <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="9">
-        <v>5</v>
-      </c>
-      <c r="D26" s="7">
-        <v>5</v>
-      </c>
-      <c r="E26">
-        <v>5</v>
-      </c>
-      <c r="F26">
-        <v>5</v>
-      </c>
-      <c r="G26" s="2">
-        <v>5</v>
-      </c>
-      <c r="H26" s="2">
-        <v>5</v>
-      </c>
-      <c r="I26" s="2">
-        <v>5</v>
-      </c>
-      <c r="J26" s="2">
-        <v>5</v>
-      </c>
-      <c r="K26" s="2">
-        <v>5</v>
-      </c>
-      <c r="L26" s="2">
-        <v>5</v>
-      </c>
-      <c r="M26" s="2">
-        <v>5</v>
-      </c>
-      <c r="N26" s="2">
-        <v>5</v>
-      </c>
-      <c r="O26" s="2">
-        <v>5</v>
-      </c>
-      <c r="P26" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>5</v>
-      </c>
-      <c r="R26" s="2">
+      <c r="C26" s="4">
+        <v>5</v>
+      </c>
+      <c r="D26" s="5">
+        <v>5</v>
+      </c>
+      <c r="E26" s="5">
+        <v>5</v>
+      </c>
+      <c r="F26" s="5">
+        <v>5</v>
+      </c>
+      <c r="G26" s="4">
+        <v>5</v>
+      </c>
+      <c r="H26" s="4">
+        <v>5</v>
+      </c>
+      <c r="I26" s="4">
+        <v>5</v>
+      </c>
+      <c r="J26" s="4">
+        <v>5</v>
+      </c>
+      <c r="K26" s="4">
+        <v>5</v>
+      </c>
+      <c r="L26" s="4">
+        <v>5</v>
+      </c>
+      <c r="M26" s="4">
+        <v>5</v>
+      </c>
+      <c r="N26" s="4">
+        <v>5</v>
+      </c>
+      <c r="O26" s="4">
+        <v>5</v>
+      </c>
+      <c r="P26" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>5</v>
+      </c>
+      <c r="R26" s="4">
         <v>5</v>
       </c>
       <c r="S26" s="2">
@@ -2272,52 +2255,52 @@
       <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="9">
-        <v>5</v>
-      </c>
-      <c r="D27" s="7">
-        <v>5</v>
-      </c>
-      <c r="E27">
+      <c r="C27" s="4">
+        <v>5</v>
+      </c>
+      <c r="D27" s="5">
+        <v>5</v>
+      </c>
+      <c r="E27" s="5">
         <v>5</v>
       </c>
       <c r="F27" s="5">
         <v>5</v>
       </c>
-      <c r="G27" s="2">
-        <v>5</v>
-      </c>
-      <c r="H27" s="2">
-        <v>5</v>
-      </c>
-      <c r="I27" s="2">
-        <v>5</v>
-      </c>
-      <c r="J27" s="2">
-        <v>5</v>
-      </c>
-      <c r="K27" s="2">
-        <v>5</v>
-      </c>
-      <c r="L27" s="2">
-        <v>5</v>
-      </c>
-      <c r="M27" s="2">
-        <v>5</v>
-      </c>
-      <c r="N27" s="2">
-        <v>5</v>
-      </c>
-      <c r="O27" s="2">
-        <v>5</v>
-      </c>
-      <c r="P27" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>5</v>
-      </c>
-      <c r="R27" s="2">
+      <c r="G27" s="4">
+        <v>5</v>
+      </c>
+      <c r="H27" s="4">
+        <v>5</v>
+      </c>
+      <c r="I27" s="4">
+        <v>5</v>
+      </c>
+      <c r="J27" s="4">
+        <v>5</v>
+      </c>
+      <c r="K27" s="4">
+        <v>5</v>
+      </c>
+      <c r="L27" s="4">
+        <v>5</v>
+      </c>
+      <c r="M27" s="4">
+        <v>5</v>
+      </c>
+      <c r="N27" s="4">
+        <v>5</v>
+      </c>
+      <c r="O27" s="4">
+        <v>5</v>
+      </c>
+      <c r="P27" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>5</v>
+      </c>
+      <c r="R27" s="4">
         <v>5</v>
       </c>
       <c r="S27" s="2">
@@ -2342,52 +2325,52 @@
       <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="9">
-        <v>5</v>
-      </c>
-      <c r="D28" s="7">
-        <v>5</v>
-      </c>
-      <c r="E28">
-        <v>5</v>
-      </c>
-      <c r="F28">
-        <v>5</v>
-      </c>
-      <c r="G28" s="2">
-        <v>5</v>
-      </c>
-      <c r="H28" s="2">
-        <v>5</v>
-      </c>
-      <c r="I28" s="2">
-        <v>5</v>
-      </c>
-      <c r="J28" s="2">
-        <v>5</v>
-      </c>
-      <c r="K28" s="2">
-        <v>5</v>
-      </c>
-      <c r="L28" s="2">
-        <v>5</v>
-      </c>
-      <c r="M28" s="2">
-        <v>5</v>
-      </c>
-      <c r="N28" s="2">
-        <v>5</v>
-      </c>
-      <c r="O28" s="2">
-        <v>5</v>
-      </c>
-      <c r="P28" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>5</v>
-      </c>
-      <c r="R28" s="2">
+      <c r="C28" s="4">
+        <v>5</v>
+      </c>
+      <c r="D28" s="5">
+        <v>5</v>
+      </c>
+      <c r="E28" s="5">
+        <v>5</v>
+      </c>
+      <c r="F28" s="5">
+        <v>5</v>
+      </c>
+      <c r="G28" s="4">
+        <v>5</v>
+      </c>
+      <c r="H28" s="4">
+        <v>5</v>
+      </c>
+      <c r="I28" s="4">
+        <v>5</v>
+      </c>
+      <c r="J28" s="4">
+        <v>5</v>
+      </c>
+      <c r="K28" s="4">
+        <v>5</v>
+      </c>
+      <c r="L28" s="4">
+        <v>5</v>
+      </c>
+      <c r="M28" s="4">
+        <v>5</v>
+      </c>
+      <c r="N28" s="4">
+        <v>5</v>
+      </c>
+      <c r="O28" s="4">
+        <v>5</v>
+      </c>
+      <c r="P28" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>5</v>
+      </c>
+      <c r="R28" s="4">
         <v>5</v>
       </c>
       <c r="S28" s="2">
@@ -2412,52 +2395,52 @@
       <c r="B29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="9">
-        <v>5</v>
-      </c>
-      <c r="D29" s="7">
-        <v>5</v>
-      </c>
-      <c r="E29">
-        <v>5</v>
-      </c>
-      <c r="F29">
-        <v>5</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>5</v>
-      </c>
-      <c r="I29" s="2">
-        <v>5</v>
-      </c>
-      <c r="J29" s="2">
-        <v>5</v>
-      </c>
-      <c r="K29" s="2">
-        <v>5</v>
-      </c>
-      <c r="L29" s="2">
+      <c r="C29" s="4">
+        <v>5</v>
+      </c>
+      <c r="D29" s="5">
+        <v>5</v>
+      </c>
+      <c r="E29" s="5">
+        <v>5</v>
+      </c>
+      <c r="F29" s="5">
+        <v>5</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>5</v>
+      </c>
+      <c r="I29" s="4">
+        <v>5</v>
+      </c>
+      <c r="J29" s="4">
+        <v>5</v>
+      </c>
+      <c r="K29" s="4">
+        <v>5</v>
+      </c>
+      <c r="L29" s="4">
         <v>5</v>
       </c>
       <c r="M29" s="4">
         <v>5</v>
       </c>
-      <c r="N29" s="2">
-        <v>5</v>
-      </c>
-      <c r="O29" s="2">
-        <v>5</v>
-      </c>
-      <c r="P29" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>5</v>
-      </c>
-      <c r="R29" s="2">
+      <c r="N29" s="4">
+        <v>5</v>
+      </c>
+      <c r="O29" s="4">
+        <v>5</v>
+      </c>
+      <c r="P29" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>5</v>
+      </c>
+      <c r="R29" s="4">
         <v>0</v>
       </c>
       <c r="S29" s="2">
@@ -2482,52 +2465,52 @@
       <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="9">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2">
-        <v>5</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
-        <v>5</v>
-      </c>
-      <c r="J30" s="2">
-        <v>5</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2">
-        <v>5</v>
-      </c>
-      <c r="N30" s="2">
-        <v>5</v>
-      </c>
-      <c r="O30" s="2">
-        <v>5</v>
-      </c>
-      <c r="P30" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>5</v>
-      </c>
-      <c r="R30" s="2">
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>5</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>5</v>
+      </c>
+      <c r="J30" s="4">
+        <v>5</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <v>5</v>
+      </c>
+      <c r="N30" s="4">
+        <v>5</v>
+      </c>
+      <c r="O30" s="4">
+        <v>5</v>
+      </c>
+      <c r="P30" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>5</v>
+      </c>
+      <c r="R30" s="4">
         <v>5</v>
       </c>
       <c r="S30" s="2">
@@ -2552,52 +2535,52 @@
       <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="9">
-        <v>5</v>
-      </c>
-      <c r="D31" s="7">
-        <v>5</v>
-      </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
-      <c r="F31">
-        <v>5</v>
-      </c>
-      <c r="G31" s="2">
-        <v>5</v>
-      </c>
-      <c r="H31" s="2">
-        <v>5</v>
-      </c>
-      <c r="I31" s="2">
-        <v>5</v>
-      </c>
-      <c r="J31" s="2">
-        <v>5</v>
-      </c>
-      <c r="K31" s="2">
-        <v>5</v>
-      </c>
-      <c r="L31" s="2">
-        <v>5</v>
-      </c>
-      <c r="M31" s="2">
-        <v>5</v>
-      </c>
-      <c r="N31" s="2">
-        <v>5</v>
-      </c>
-      <c r="O31" s="2">
-        <v>5</v>
-      </c>
-      <c r="P31" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>5</v>
-      </c>
-      <c r="R31" s="2">
+      <c r="C31" s="4">
+        <v>5</v>
+      </c>
+      <c r="D31" s="5">
+        <v>5</v>
+      </c>
+      <c r="E31" s="5">
+        <v>5</v>
+      </c>
+      <c r="F31" s="5">
+        <v>5</v>
+      </c>
+      <c r="G31" s="4">
+        <v>5</v>
+      </c>
+      <c r="H31" s="4">
+        <v>5</v>
+      </c>
+      <c r="I31" s="4">
+        <v>5</v>
+      </c>
+      <c r="J31" s="4">
+        <v>5</v>
+      </c>
+      <c r="K31" s="4">
+        <v>5</v>
+      </c>
+      <c r="L31" s="4">
+        <v>5</v>
+      </c>
+      <c r="M31" s="4">
+        <v>5</v>
+      </c>
+      <c r="N31" s="4">
+        <v>5</v>
+      </c>
+      <c r="O31" s="4">
+        <v>5</v>
+      </c>
+      <c r="P31" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>5</v>
+      </c>
+      <c r="R31" s="4">
         <v>0</v>
       </c>
       <c r="S31" s="2">
